--- a/artfynd/A 6223-2020.xlsx
+++ b/artfynd/A 6223-2020.xlsx
@@ -6473,10 +6473,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111254429</v>
+        <v>111251085</v>
       </c>
       <c r="B53" t="n">
-        <v>77515</v>
+        <v>94134</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6489,21 +6489,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>569389.9446826552</v>
+        <v>569308.5885678579</v>
       </c>
       <c r="R53" t="n">
-        <v>6991409.678100795</v>
+        <v>6991857.638304747</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6559,12 +6559,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6591,10 +6586,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111253829</v>
+        <v>111254324</v>
       </c>
       <c r="B54" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6603,25 +6598,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6632,10 +6627,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>569380.6327735524</v>
+        <v>569420.3554430183</v>
       </c>
       <c r="R54" t="n">
-        <v>6991526.560634119</v>
+        <v>6991475.221997982</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6667,7 +6662,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6677,7 +6672,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6704,10 +6699,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111250234</v>
+        <v>111250796</v>
       </c>
       <c r="B55" t="n">
-        <v>89686</v>
+        <v>89423</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6720,21 +6715,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6745,10 +6740,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>569295.4300983869</v>
+        <v>569335.4523670888</v>
       </c>
       <c r="R55" t="n">
-        <v>6991707.617092772</v>
+        <v>6991855.03516248</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6780,7 +6775,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6790,7 +6785,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6817,10 +6812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111249744</v>
+        <v>111252252</v>
       </c>
       <c r="B56" t="n">
-        <v>96348</v>
+        <v>89590</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6833,21 +6828,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>48</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6858,10 +6853,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>569347.6725137118</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R56" t="n">
-        <v>6991686.950512252</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6893,7 +6888,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6903,7 +6898,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6930,10 +6925,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111249372</v>
+        <v>111250643</v>
       </c>
       <c r="B57" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6946,21 +6941,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6971,10 +6966,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>569345.1029144006</v>
+        <v>569344.7032350204</v>
       </c>
       <c r="R57" t="n">
-        <v>6991658.307856695</v>
+        <v>6991762.212588392</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7006,7 +7001,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7016,7 +7011,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7043,10 +7038,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111249376</v>
+        <v>111248967</v>
       </c>
       <c r="B58" t="n">
-        <v>78611</v>
+        <v>77186</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7055,25 +7050,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6463</v>
+        <v>353</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7084,10 +7079,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>569345.1029144006</v>
+        <v>569325.8740521516</v>
       </c>
       <c r="R58" t="n">
-        <v>6991658.307856695</v>
+        <v>6991579.847034768</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7119,7 +7114,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7129,7 +7124,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7156,10 +7151,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111250202</v>
+        <v>111249744</v>
       </c>
       <c r="B59" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7168,25 +7163,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7197,10 +7192,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>569329.4847762987</v>
+        <v>569347.6725137118</v>
       </c>
       <c r="R59" t="n">
-        <v>6991708.797230477</v>
+        <v>6991686.950512252</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7232,7 +7227,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7242,7 +7237,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7269,10 +7264,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111249480</v>
+        <v>111249850</v>
       </c>
       <c r="B60" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7285,21 +7280,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7310,10 +7305,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>569345.4513511715</v>
+        <v>569339.2156779077</v>
       </c>
       <c r="R60" t="n">
-        <v>6991641.979281792</v>
+        <v>6991721.256613475</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7345,7 +7340,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7355,7 +7350,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7382,10 +7377,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111253942</v>
+        <v>111249281</v>
       </c>
       <c r="B61" t="n">
-        <v>77267</v>
+        <v>78612</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7394,25 +7389,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6446</v>
+        <v>6464</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7423,10 +7418,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>569401.555805147</v>
+        <v>569357.4928990568</v>
       </c>
       <c r="R61" t="n">
-        <v>6991525.645999004</v>
+        <v>6991631.345539477</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7458,7 +7453,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7468,7 +7463,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7495,10 +7490,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111254202</v>
+        <v>111250393</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7507,25 +7502,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7536,10 +7531,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>569425.1387308423</v>
+        <v>569307.0354643038</v>
       </c>
       <c r="R62" t="n">
-        <v>6991485.307824904</v>
+        <v>6991738.720787689</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7571,7 +7566,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7581,7 +7576,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7608,10 +7603,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111254048</v>
+        <v>111251358</v>
       </c>
       <c r="B63" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7624,21 +7619,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7649,10 +7644,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>569413.9649865336</v>
+        <v>569298.1228686108</v>
       </c>
       <c r="R63" t="n">
-        <v>6991519.104081177</v>
+        <v>6991879.64871443</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7684,7 +7679,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7694,12 +7689,12 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>På tall</t>
+          <t>På asp och gran</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7726,10 +7721,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111254528</v>
+        <v>111253942</v>
       </c>
       <c r="B64" t="n">
-        <v>89423</v>
+        <v>77267</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7742,21 +7737,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>6446</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7767,10 +7762,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>569369.699462823</v>
+        <v>569401.555805147</v>
       </c>
       <c r="R64" t="n">
-        <v>6991357.510963725</v>
+        <v>6991525.645999004</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7802,7 +7797,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7812,7 +7807,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7839,10 +7834,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111251881</v>
+        <v>111249831</v>
       </c>
       <c r="B65" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7855,21 +7850,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7880,10 +7875,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>569355.4842857358</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R65" t="n">
-        <v>6991853.193911698</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7915,7 +7910,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7925,7 +7920,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7952,10 +7947,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111250796</v>
+        <v>111249547</v>
       </c>
       <c r="B66" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7968,21 +7963,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7993,10 +7988,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>569335.4523670888</v>
+        <v>569345.1029144006</v>
       </c>
       <c r="R66" t="n">
-        <v>6991855.03516248</v>
+        <v>6991658.307856695</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8028,7 +8023,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8038,7 +8033,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8065,10 +8060,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111251336</v>
+        <v>111251387</v>
       </c>
       <c r="B67" t="n">
-        <v>78611</v>
+        <v>95532</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8081,21 +8076,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6463</v>
+        <v>221945</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8106,10 +8101,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>569298.1228686108</v>
+        <v>569286.1694550777</v>
       </c>
       <c r="R67" t="n">
-        <v>6991879.64871443</v>
+        <v>6991886.199991896</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8178,10 +8173,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111251532</v>
+        <v>111251881</v>
       </c>
       <c r="B68" t="n">
-        <v>96381</v>
+        <v>78578</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8190,25 +8185,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8219,10 +8214,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>569293.3011180179</v>
+        <v>569355.4842857358</v>
       </c>
       <c r="R68" t="n">
-        <v>6991871.378452423</v>
+        <v>6991853.193911698</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8291,7 +8286,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111250347</v>
+        <v>111250202</v>
       </c>
       <c r="B69" t="n">
         <v>89686</v>
@@ -8332,10 +8327,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>569291.1779632393</v>
+        <v>569329.4847762987</v>
       </c>
       <c r="R69" t="n">
-        <v>6991715.24049816</v>
+        <v>6991708.797230477</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8404,10 +8399,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111248740</v>
+        <v>111251801</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8416,25 +8411,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8445,10 +8440,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>569294.9201144365</v>
+        <v>569335.4523670888</v>
       </c>
       <c r="R70" t="n">
-        <v>6991582.363368088</v>
+        <v>6991855.03516248</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8480,7 +8475,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8490,7 +8485,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8517,10 +8512,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111254776</v>
+        <v>111253829</v>
       </c>
       <c r="B71" t="n">
-        <v>78611</v>
+        <v>77186</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8529,25 +8524,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6463</v>
+        <v>353</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8558,10 +8553,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>569346.6997027611</v>
+        <v>569380.6327735524</v>
       </c>
       <c r="R71" t="n">
-        <v>6991285.31596909</v>
+        <v>6991526.560634119</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8593,7 +8588,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8603,7 +8598,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8630,7 +8625,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111251358</v>
+        <v>111254202</v>
       </c>
       <c r="B72" t="n">
         <v>78578</v>
@@ -8671,10 +8666,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>569298.1228686108</v>
+        <v>569425.1387308423</v>
       </c>
       <c r="R72" t="n">
-        <v>6991879.64871443</v>
+        <v>6991485.307824904</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8706,7 +8701,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8716,12 +8711,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>14:18</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>På asp och gran</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8748,10 +8738,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111249332</v>
+        <v>111254776</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8760,25 +8750,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8789,10 +8779,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>569357.4928990568</v>
+        <v>569346.6997027611</v>
       </c>
       <c r="R73" t="n">
-        <v>6991631.345539477</v>
+        <v>6991285.31596909</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8824,7 +8814,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8834,7 +8824,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8861,10 +8851,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111249624</v>
+        <v>111254528</v>
       </c>
       <c r="B74" t="n">
-        <v>89369</v>
+        <v>89423</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8873,25 +8863,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8902,10 +8892,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>569336.6363618984</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R74" t="n">
-        <v>6991693.067832828</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8937,7 +8927,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8947,7 +8937,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8974,10 +8964,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111249281</v>
+        <v>111254429</v>
       </c>
       <c r="B75" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8986,25 +8976,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9015,10 +9005,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>569357.4928990568</v>
+        <v>569389.9446826552</v>
       </c>
       <c r="R75" t="n">
-        <v>6991631.345539477</v>
+        <v>6991409.678100795</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9050,7 +9040,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9060,7 +9050,12 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9087,10 +9082,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111251387</v>
+        <v>111254715</v>
       </c>
       <c r="B76" t="n">
-        <v>95532</v>
+        <v>96348</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9099,25 +9094,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9128,10 +9123,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>569286.1694550777</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R76" t="n">
-        <v>6991886.199991896</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9163,7 +9158,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9173,7 +9168,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9200,10 +9195,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111251574</v>
+        <v>111249030</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9216,21 +9211,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9241,10 +9236,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>569311.4872073382</v>
+        <v>569312.2187498846</v>
       </c>
       <c r="R77" t="n">
-        <v>6991870.858826003</v>
+        <v>6991580.917124028</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9276,7 +9271,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9286,12 +9281,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>14:18</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>På björk och gran</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9318,10 +9308,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111248638</v>
+        <v>111250234</v>
       </c>
       <c r="B78" t="n">
-        <v>77267</v>
+        <v>89686</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9334,21 +9324,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6446</v>
+        <v>658</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9359,10 +9349,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>569273.0602891329</v>
+        <v>569295.4300983869</v>
       </c>
       <c r="R78" t="n">
-        <v>6991563.292001127</v>
+        <v>6991707.617092772</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9394,7 +9384,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9404,7 +9394,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9431,10 +9421,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111249909</v>
+        <v>111250493</v>
       </c>
       <c r="B79" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9447,21 +9437,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9472,10 +9462,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>569311.1236418867</v>
+        <v>569352.0774200963</v>
       </c>
       <c r="R79" t="n">
-        <v>6991717.480934915</v>
+        <v>6991736.051629628</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9507,7 +9497,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9517,7 +9507,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9544,10 +9534,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111250493</v>
+        <v>111251532</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>96381</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9556,25 +9546,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>219874</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9585,10 +9575,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>569352.0774200963</v>
+        <v>569293.3011180179</v>
       </c>
       <c r="R80" t="n">
-        <v>6991736.051629628</v>
+        <v>6991871.378452423</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9620,7 +9610,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9630,7 +9620,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9657,10 +9647,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111251801</v>
+        <v>111254241</v>
       </c>
       <c r="B81" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9673,21 +9663,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9698,10 +9688,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>569335.4523670888</v>
+        <v>569420.3554430183</v>
       </c>
       <c r="R81" t="n">
-        <v>6991855.03516248</v>
+        <v>6991475.221997982</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -9733,7 +9723,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9743,7 +9733,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9770,10 +9760,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111250729</v>
+        <v>111249480</v>
       </c>
       <c r="B82" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9782,25 +9772,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9811,10 +9801,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>569335.0375771614</v>
+        <v>569345.4513511715</v>
       </c>
       <c r="R82" t="n">
-        <v>6991831.885005536</v>
+        <v>6991641.979281792</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -9846,7 +9836,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9856,7 +9846,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9883,10 +9873,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111254324</v>
+        <v>111251574</v>
       </c>
       <c r="B83" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9895,25 +9885,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9924,10 +9914,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>569420.3554430183</v>
+        <v>569311.4872073382</v>
       </c>
       <c r="R83" t="n">
-        <v>6991475.221997982</v>
+        <v>6991870.858826003</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -9959,7 +9949,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9969,7 +9959,12 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>På björk och gran</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9996,10 +9991,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111249831</v>
+        <v>111251249</v>
       </c>
       <c r="B84" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10012,21 +10007,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10037,10 +10032,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>569336.6363618984</v>
+        <v>569319.401580702</v>
       </c>
       <c r="R84" t="n">
-        <v>6991693.067832828</v>
+        <v>6991861.95269735</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10072,7 +10067,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -10082,7 +10077,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10109,10 +10104,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111252314</v>
+        <v>111248624</v>
       </c>
       <c r="B85" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10125,21 +10120,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10150,10 +10145,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>569375.9390762256</v>
+        <v>569280.5017285499</v>
       </c>
       <c r="R85" t="n">
-        <v>6991682.562339606</v>
+        <v>6991555.282407867</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10185,7 +10180,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -10195,7 +10190,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10222,10 +10217,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111252263</v>
+        <v>111249332</v>
       </c>
       <c r="B86" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10238,21 +10233,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10263,10 +10258,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>569383.1558505741</v>
+        <v>569357.4928990568</v>
       </c>
       <c r="R86" t="n">
-        <v>6991727.63971243</v>
+        <v>6991631.345539477</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10298,7 +10293,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10308,7 +10303,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10335,7 +10330,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111254715</v>
+        <v>111248575</v>
       </c>
       <c r="B87" t="n">
         <v>96348</v>
@@ -10376,10 +10371,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>569369.699462823</v>
+        <v>569293.1809982734</v>
       </c>
       <c r="R87" t="n">
-        <v>6991357.510963725</v>
+        <v>6991557.367896893</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10411,7 +10406,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10421,7 +10416,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10448,10 +10443,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111254369</v>
+        <v>111249822</v>
       </c>
       <c r="B88" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10464,21 +10459,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10489,10 +10484,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>569423.6621602169</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R88" t="n">
-        <v>6991448.064345377</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10524,7 +10519,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10534,7 +10529,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10561,7 +10556,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111250643</v>
+        <v>111252314</v>
       </c>
       <c r="B89" t="n">
         <v>89686</v>
@@ -10602,10 +10597,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>569344.7032350204</v>
+        <v>569375.9390762256</v>
       </c>
       <c r="R89" t="n">
-        <v>6991762.212588392</v>
+        <v>6991682.562339606</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10637,7 +10632,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10647,7 +10642,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10674,10 +10669,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111250393</v>
+        <v>111248638</v>
       </c>
       <c r="B90" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10686,25 +10681,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10715,10 +10710,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>569307.0354643038</v>
+        <v>569273.0602891329</v>
       </c>
       <c r="R90" t="n">
-        <v>6991738.720787689</v>
+        <v>6991563.292001127</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10750,7 +10745,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10760,7 +10755,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10787,10 +10782,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111248624</v>
+        <v>111250729</v>
       </c>
       <c r="B91" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10799,25 +10794,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10828,10 +10823,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>569280.5017285499</v>
+        <v>569335.0375771614</v>
       </c>
       <c r="R91" t="n">
-        <v>6991555.282407867</v>
+        <v>6991831.885005536</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10863,7 +10858,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10873,7 +10868,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10900,10 +10895,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111248967</v>
+        <v>111254369</v>
       </c>
       <c r="B92" t="n">
-        <v>77186</v>
+        <v>78578</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10916,21 +10911,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>353</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10941,10 +10936,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>569325.8740521516</v>
+        <v>569423.6621602169</v>
       </c>
       <c r="R92" t="n">
-        <v>6991579.847034768</v>
+        <v>6991448.064345377</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -10976,7 +10971,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10986,7 +10981,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11013,7 +11008,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111249850</v>
+        <v>111252281</v>
       </c>
       <c r="B93" t="n">
         <v>89686</v>
@@ -11054,10 +11049,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>569339.2156779077</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R93" t="n">
-        <v>6991721.256613475</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11089,7 +11084,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11099,7 +11094,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11126,10 +11121,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111254559</v>
+        <v>111251612</v>
       </c>
       <c r="B94" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11142,21 +11137,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11167,10 +11162,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>569369.699462823</v>
+        <v>569311.4872073382</v>
       </c>
       <c r="R94" t="n">
-        <v>6991357.510963725</v>
+        <v>6991870.858826003</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11202,7 +11197,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11212,12 +11207,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Liten bål på gammal senvuxen björk</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11244,10 +11234,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111254241</v>
+        <v>111248740</v>
       </c>
       <c r="B95" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11256,25 +11246,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11285,10 +11275,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>569420.3554430183</v>
+        <v>569294.9201144365</v>
       </c>
       <c r="R95" t="n">
-        <v>6991475.221997982</v>
+        <v>6991582.363368088</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11320,7 +11310,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11330,7 +11320,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11357,7 +11347,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111252281</v>
+        <v>111249909</v>
       </c>
       <c r="B96" t="n">
         <v>89686</v>
@@ -11398,10 +11388,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>569383.1558505741</v>
+        <v>569311.1236418867</v>
       </c>
       <c r="R96" t="n">
-        <v>6991727.63971243</v>
+        <v>6991717.480934915</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11433,7 +11423,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11443,7 +11433,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11470,10 +11460,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111248259</v>
+        <v>111249376</v>
       </c>
       <c r="B97" t="n">
-        <v>89686</v>
+        <v>78611</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11482,25 +11472,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>658</v>
+        <v>6463</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11511,10 +11501,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>569165.6920703583</v>
+        <v>569345.1029144006</v>
       </c>
       <c r="R97" t="n">
-        <v>6991547.845184474</v>
+        <v>6991658.307856695</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11546,7 +11536,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11556,7 +11546,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11583,7 +11573,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111251612</v>
+        <v>111248259</v>
       </c>
       <c r="B98" t="n">
         <v>89686</v>
@@ -11624,10 +11614,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>569311.4872073382</v>
+        <v>569165.6920703583</v>
       </c>
       <c r="R98" t="n">
-        <v>6991870.858826003</v>
+        <v>6991547.845184474</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11659,7 +11649,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11669,7 +11659,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11696,7 +11686,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111251249</v>
+        <v>111254048</v>
       </c>
       <c r="B99" t="n">
         <v>77515</v>
@@ -11737,10 +11727,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>569319.401580702</v>
+        <v>569413.9649865336</v>
       </c>
       <c r="R99" t="n">
-        <v>6991861.95269735</v>
+        <v>6991519.104081177</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11772,7 +11762,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11782,7 +11772,12 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:29</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11809,10 +11804,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111251085</v>
+        <v>111254559</v>
       </c>
       <c r="B100" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11825,21 +11820,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11850,10 +11845,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>569308.5885678579</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R100" t="n">
-        <v>6991857.638304747</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11885,7 +11880,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -11895,7 +11890,12 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>Liten bål på gammal senvuxen björk</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11922,7 +11922,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111249822</v>
+        <v>111250347</v>
       </c>
       <c r="B101" t="n">
         <v>89686</v>
@@ -11963,10 +11963,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>569336.6363618984</v>
+        <v>569291.1779632393</v>
       </c>
       <c r="R101" t="n">
-        <v>6991693.067832828</v>
+        <v>6991715.24049816</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12035,10 +12035,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111249030</v>
+        <v>111249624</v>
       </c>
       <c r="B102" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12047,25 +12047,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12076,10 +12076,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>569312.2187498846</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R102" t="n">
-        <v>6991580.917124028</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12148,10 +12148,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111248575</v>
+        <v>111251336</v>
       </c>
       <c r="B103" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12160,25 +12160,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12189,10 +12189,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>569293.1809982734</v>
+        <v>569298.1228686108</v>
       </c>
       <c r="R103" t="n">
-        <v>6991557.367896893</v>
+        <v>6991879.64871443</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12224,7 +12224,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12234,7 +12234,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12261,10 +12261,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111252252</v>
+        <v>111252263</v>
       </c>
       <c r="B104" t="n">
-        <v>89590</v>
+        <v>89405</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12273,25 +12273,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>48</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12374,10 +12374,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111254771</v>
+        <v>111250541</v>
       </c>
       <c r="B105" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12386,25 +12386,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12415,10 +12415,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>569372.2038656139</v>
+        <v>569352.0774200963</v>
       </c>
       <c r="R105" t="n">
-        <v>6991325.343115335</v>
+        <v>6991736.051629628</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12487,10 +12487,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111250541</v>
+        <v>111254771</v>
       </c>
       <c r="B106" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12499,25 +12499,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12528,10 +12528,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>569352.0774200963</v>
+        <v>569372.2038656139</v>
       </c>
       <c r="R106" t="n">
-        <v>6991736.051629628</v>
+        <v>6991325.343115335</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12573,7 +12573,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 6223-2020.xlsx
+++ b/artfynd/A 6223-2020.xlsx
@@ -6473,10 +6473,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111251085</v>
+        <v>111254241</v>
       </c>
       <c r="B53" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6489,21 +6489,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>569308.5885678579</v>
+        <v>569420.3554430183</v>
       </c>
       <c r="R53" t="n">
-        <v>6991857.638304747</v>
+        <v>6991475.221997982</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6586,10 +6586,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111254324</v>
+        <v>111252263</v>
       </c>
       <c r="B54" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6598,25 +6598,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6627,10 +6627,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>569420.3554430183</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R54" t="n">
-        <v>6991475.221997982</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6699,10 +6699,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111250796</v>
+        <v>111251612</v>
       </c>
       <c r="B55" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6715,21 +6715,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>569335.4523670888</v>
+        <v>569311.4872073382</v>
       </c>
       <c r="R55" t="n">
-        <v>6991855.03516248</v>
+        <v>6991870.858826003</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111252252</v>
+        <v>111249281</v>
       </c>
       <c r="B56" t="n">
-        <v>89590</v>
+        <v>78612</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6824,25 +6824,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>48</v>
+        <v>6464</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6853,10 +6853,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>569383.1558505741</v>
+        <v>569357.4928990568</v>
       </c>
       <c r="R56" t="n">
-        <v>6991727.63971243</v>
+        <v>6991631.345539477</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6925,10 +6925,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111250643</v>
+        <v>111254528</v>
       </c>
       <c r="B57" t="n">
-        <v>89686</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6941,21 +6941,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6966,10 +6966,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>569344.7032350204</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R57" t="n">
-        <v>6991762.212588392</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7038,10 +7038,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111248967</v>
+        <v>111250493</v>
       </c>
       <c r="B58" t="n">
-        <v>77186</v>
+        <v>78578</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7054,21 +7054,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>353</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7079,10 +7079,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>569325.8740521516</v>
+        <v>569352.0774200963</v>
       </c>
       <c r="R58" t="n">
-        <v>6991579.847034768</v>
+        <v>6991736.051629628</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7151,10 +7151,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111249744</v>
+        <v>111249480</v>
       </c>
       <c r="B59" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7163,25 +7163,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7192,10 +7192,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>569347.6725137118</v>
+        <v>569345.4513511715</v>
       </c>
       <c r="R59" t="n">
-        <v>6991686.950512252</v>
+        <v>6991641.979281792</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7264,10 +7264,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111249850</v>
+        <v>111249030</v>
       </c>
       <c r="B60" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7280,21 +7280,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7305,10 +7305,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>569339.2156779077</v>
+        <v>569312.2187498846</v>
       </c>
       <c r="R60" t="n">
-        <v>6991721.256613475</v>
+        <v>6991580.917124028</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7377,10 +7377,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111249281</v>
+        <v>111250347</v>
       </c>
       <c r="B61" t="n">
-        <v>78612</v>
+        <v>89686</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7389,25 +7389,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6464</v>
+        <v>658</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7418,10 +7418,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>569357.4928990568</v>
+        <v>569291.1779632393</v>
       </c>
       <c r="R61" t="n">
-        <v>6991631.345539477</v>
+        <v>6991715.24049816</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7490,7 +7490,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111250393</v>
+        <v>111249744</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>569307.0354643038</v>
+        <v>569347.6725137118</v>
       </c>
       <c r="R62" t="n">
-        <v>6991738.720787689</v>
+        <v>6991686.950512252</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7603,10 +7603,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111251358</v>
+        <v>111251801</v>
       </c>
       <c r="B63" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7619,21 +7619,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7644,10 +7644,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>569298.1228686108</v>
+        <v>569335.4523670888</v>
       </c>
       <c r="R63" t="n">
-        <v>6991879.64871443</v>
+        <v>6991855.03516248</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7690,11 +7690,6 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>14:18</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>På asp och gran</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7721,10 +7716,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111253942</v>
+        <v>111251387</v>
       </c>
       <c r="B64" t="n">
-        <v>77267</v>
+        <v>95532</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7733,25 +7728,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6446</v>
+        <v>221945</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7762,10 +7757,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>569401.555805147</v>
+        <v>569286.1694550777</v>
       </c>
       <c r="R64" t="n">
-        <v>6991525.645999004</v>
+        <v>6991886.199991896</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7797,7 +7792,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7807,7 +7802,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7834,10 +7829,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111249831</v>
+        <v>111251276</v>
       </c>
       <c r="B65" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7850,21 +7845,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7875,10 +7870,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>569336.6363618984</v>
+        <v>569298.1228686108</v>
       </c>
       <c r="R65" t="n">
-        <v>6991693.067832828</v>
+        <v>6991879.64871443</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7910,7 +7905,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7920,7 +7915,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7947,10 +7942,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111249547</v>
+        <v>111254048</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7963,21 +7958,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7988,10 +7983,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>569345.1029144006</v>
+        <v>569413.9649865336</v>
       </c>
       <c r="R66" t="n">
-        <v>6991658.307856695</v>
+        <v>6991519.104081177</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8023,7 +8018,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8033,7 +8028,12 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>16:29</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8060,10 +8060,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111251387</v>
+        <v>111249372</v>
       </c>
       <c r="B67" t="n">
-        <v>95532</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8072,25 +8072,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>221945</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8101,10 +8101,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>569286.1694550777</v>
+        <v>569345.1029144006</v>
       </c>
       <c r="R67" t="n">
-        <v>6991886.199991896</v>
+        <v>6991658.307856695</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8173,10 +8173,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111251881</v>
+        <v>111249850</v>
       </c>
       <c r="B68" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8189,21 +8189,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8214,10 +8214,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>569355.4842857358</v>
+        <v>569339.2156779077</v>
       </c>
       <c r="R68" t="n">
-        <v>6991853.193911698</v>
+        <v>6991721.256613475</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8286,10 +8286,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111250202</v>
+        <v>111249332</v>
       </c>
       <c r="B69" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8302,21 +8302,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8327,10 +8327,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>569329.4847762987</v>
+        <v>569357.4928990568</v>
       </c>
       <c r="R69" t="n">
-        <v>6991708.797230477</v>
+        <v>6991631.345539477</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8362,7 +8362,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8399,10 +8399,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111251801</v>
+        <v>111251881</v>
       </c>
       <c r="B70" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8415,21 +8415,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8440,10 +8440,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>569335.4523670888</v>
+        <v>569355.4842857358</v>
       </c>
       <c r="R70" t="n">
-        <v>6991855.03516248</v>
+        <v>6991853.193911698</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8512,10 +8512,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111253829</v>
+        <v>111250393</v>
       </c>
       <c r="B71" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8524,25 +8524,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>569380.6327735524</v>
+        <v>569307.0354643038</v>
       </c>
       <c r="R71" t="n">
-        <v>6991526.560634119</v>
+        <v>6991738.720787689</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8625,10 +8625,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111254202</v>
+        <v>111251336</v>
       </c>
       <c r="B72" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8637,25 +8637,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8666,10 +8666,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>569425.1387308423</v>
+        <v>569298.1228686108</v>
       </c>
       <c r="R72" t="n">
-        <v>6991485.307824904</v>
+        <v>6991879.64871443</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8738,10 +8738,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111254776</v>
+        <v>111250729</v>
       </c>
       <c r="B73" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8750,25 +8750,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8779,10 +8779,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>569346.6997027611</v>
+        <v>569335.0375771614</v>
       </c>
       <c r="R73" t="n">
-        <v>6991285.31596909</v>
+        <v>6991831.885005536</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8814,7 +8814,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8851,10 +8851,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111254528</v>
+        <v>111249376</v>
       </c>
       <c r="B74" t="n">
-        <v>89423</v>
+        <v>78611</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8863,25 +8863,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8892,10 +8892,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>569369.699462823</v>
+        <v>569345.1029144006</v>
       </c>
       <c r="R74" t="n">
-        <v>6991357.510963725</v>
+        <v>6991658.307856695</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8927,7 +8927,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9082,10 +9082,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111254715</v>
+        <v>111250796</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9094,25 +9094,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9123,10 +9123,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>569369.699462823</v>
+        <v>569335.4523670888</v>
       </c>
       <c r="R76" t="n">
-        <v>6991357.510963725</v>
+        <v>6991855.03516248</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9195,7 +9195,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111249030</v>
+        <v>111249831</v>
       </c>
       <c r="B77" t="n">
         <v>89405</v>
@@ -9236,10 +9236,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>569312.2187498846</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R77" t="n">
-        <v>6991580.917124028</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9308,10 +9308,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111250234</v>
+        <v>111253942</v>
       </c>
       <c r="B78" t="n">
-        <v>89686</v>
+        <v>77267</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9324,21 +9324,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>658</v>
+        <v>6446</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9349,10 +9349,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>569295.4300983869</v>
+        <v>569401.555805147</v>
       </c>
       <c r="R78" t="n">
-        <v>6991707.617092772</v>
+        <v>6991525.645999004</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9421,7 +9421,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111250493</v>
+        <v>111254202</v>
       </c>
       <c r="B79" t="n">
         <v>78578</v>
@@ -9462,10 +9462,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>569352.0774200963</v>
+        <v>569425.1387308423</v>
       </c>
       <c r="R79" t="n">
-        <v>6991736.051629628</v>
+        <v>6991485.307824904</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9534,10 +9534,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111251532</v>
+        <v>111252252</v>
       </c>
       <c r="B80" t="n">
-        <v>96381</v>
+        <v>89590</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9546,25 +9546,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>219874</v>
+        <v>48</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>569293.3011180179</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R80" t="n">
-        <v>6991871.378452423</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9647,10 +9647,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111254241</v>
+        <v>111248624</v>
       </c>
       <c r="B81" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9663,21 +9663,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9688,10 +9688,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>569420.3554430183</v>
+        <v>569280.5017285499</v>
       </c>
       <c r="R81" t="n">
-        <v>6991475.221997982</v>
+        <v>6991555.282407867</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9760,10 +9760,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111249480</v>
+        <v>111248967</v>
       </c>
       <c r="B82" t="n">
-        <v>89405</v>
+        <v>77186</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9776,21 +9776,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>353</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9801,10 +9801,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>569345.4513511715</v>
+        <v>569325.8740521516</v>
       </c>
       <c r="R82" t="n">
-        <v>6991641.979281792</v>
+        <v>6991579.847034768</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9873,10 +9873,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111251574</v>
+        <v>111248638</v>
       </c>
       <c r="B83" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9889,21 +9889,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9914,10 +9914,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>569311.4872073382</v>
+        <v>569273.0602891329</v>
       </c>
       <c r="R83" t="n">
-        <v>6991870.858826003</v>
+        <v>6991563.292001127</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -9949,7 +9949,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9959,12 +9959,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>14:18</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>På björk och gran</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9991,10 +9986,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111251249</v>
+        <v>111249624</v>
       </c>
       <c r="B84" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10003,25 +9998,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10032,10 +10027,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>569319.401580702</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R84" t="n">
-        <v>6991861.95269735</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10067,7 +10062,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -10077,7 +10072,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10104,10 +10099,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111248624</v>
+        <v>111254776</v>
       </c>
       <c r="B85" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10116,25 +10111,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10145,10 +10140,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>569280.5017285499</v>
+        <v>569346.6997027611</v>
       </c>
       <c r="R85" t="n">
-        <v>6991555.282407867</v>
+        <v>6991285.31596909</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10180,7 +10175,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -10190,7 +10185,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10217,10 +10212,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111249332</v>
+        <v>111253829</v>
       </c>
       <c r="B86" t="n">
-        <v>78578</v>
+        <v>77186</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10233,21 +10228,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10258,10 +10253,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>569357.4928990568</v>
+        <v>569380.6327735524</v>
       </c>
       <c r="R86" t="n">
-        <v>6991631.345539477</v>
+        <v>6991526.560634119</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10293,7 +10288,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10303,7 +10298,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10330,10 +10325,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111248575</v>
+        <v>111250643</v>
       </c>
       <c r="B87" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10342,25 +10337,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10371,10 +10366,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>569293.1809982734</v>
+        <v>569344.7032350204</v>
       </c>
       <c r="R87" t="n">
-        <v>6991557.367896893</v>
+        <v>6991762.212588392</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10406,7 +10401,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10416,7 +10411,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10443,7 +10438,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111249822</v>
+        <v>111248259</v>
       </c>
       <c r="B88" t="n">
         <v>89686</v>
@@ -10484,10 +10479,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>569336.6363618984</v>
+        <v>569165.6920703583</v>
       </c>
       <c r="R88" t="n">
-        <v>6991693.067832828</v>
+        <v>6991547.845184474</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10519,7 +10514,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10529,7 +10524,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10556,7 +10551,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111252314</v>
+        <v>111249909</v>
       </c>
       <c r="B89" t="n">
         <v>89686</v>
@@ -10597,10 +10592,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>569375.9390762256</v>
+        <v>569311.1236418867</v>
       </c>
       <c r="R89" t="n">
-        <v>6991682.562339606</v>
+        <v>6991717.480934915</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10632,7 +10627,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10642,7 +10637,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10669,10 +10664,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111248638</v>
+        <v>111249939</v>
       </c>
       <c r="B90" t="n">
-        <v>77267</v>
+        <v>89686</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10685,21 +10680,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6446</v>
+        <v>658</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10710,10 +10705,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>569273.0602891329</v>
+        <v>569329.4847762987</v>
       </c>
       <c r="R90" t="n">
-        <v>6991563.292001127</v>
+        <v>6991708.797230477</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10745,7 +10740,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10755,7 +10750,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10782,10 +10777,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111250729</v>
+        <v>111252314</v>
       </c>
       <c r="B91" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10794,25 +10789,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10823,10 +10818,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>569335.0375771614</v>
+        <v>569375.9390762256</v>
       </c>
       <c r="R91" t="n">
-        <v>6991831.885005536</v>
+        <v>6991682.562339606</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10858,7 +10853,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10868,7 +10863,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10895,10 +10890,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111254369</v>
+        <v>111251249</v>
       </c>
       <c r="B92" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10911,21 +10906,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10936,10 +10931,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>569423.6621602169</v>
+        <v>569319.401580702</v>
       </c>
       <c r="R92" t="n">
-        <v>6991448.064345377</v>
+        <v>6991861.95269735</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -10971,7 +10966,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10981,7 +10976,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11008,7 +11003,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111252281</v>
+        <v>111250234</v>
       </c>
       <c r="B93" t="n">
         <v>89686</v>
@@ -11049,10 +11044,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>569383.1558505741</v>
+        <v>569295.4300983869</v>
       </c>
       <c r="R93" t="n">
-        <v>6991727.63971243</v>
+        <v>6991707.617092772</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11084,7 +11079,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11094,7 +11089,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11121,10 +11116,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111251612</v>
+        <v>111251085</v>
       </c>
       <c r="B94" t="n">
-        <v>89686</v>
+        <v>94134</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11137,21 +11132,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>658</v>
+        <v>53</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11162,10 +11157,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>569311.4872073382</v>
+        <v>569308.5885678579</v>
       </c>
       <c r="R94" t="n">
-        <v>6991870.858826003</v>
+        <v>6991857.638304747</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11234,7 +11229,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111248740</v>
+        <v>111254715</v>
       </c>
       <c r="B95" t="n">
         <v>96348</v>
@@ -11275,10 +11270,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>569294.9201144365</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R95" t="n">
-        <v>6991582.363368088</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11310,7 +11305,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11320,7 +11315,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11347,10 +11342,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111249909</v>
+        <v>111248740</v>
       </c>
       <c r="B96" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11359,25 +11354,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11388,10 +11383,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>569311.1236418867</v>
+        <v>569294.9201144365</v>
       </c>
       <c r="R96" t="n">
-        <v>6991717.480934915</v>
+        <v>6991582.363368088</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11423,7 +11418,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11433,7 +11428,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11460,10 +11455,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111249376</v>
+        <v>111249822</v>
       </c>
       <c r="B97" t="n">
-        <v>78611</v>
+        <v>89686</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11472,25 +11467,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6463</v>
+        <v>658</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11501,10 +11496,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>569345.1029144006</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R97" t="n">
-        <v>6991658.307856695</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11536,7 +11531,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11546,7 +11541,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11573,10 +11568,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111248259</v>
+        <v>111248575</v>
       </c>
       <c r="B98" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11585,25 +11580,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11614,10 +11609,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>569165.6920703583</v>
+        <v>569293.1809982734</v>
       </c>
       <c r="R98" t="n">
-        <v>6991547.845184474</v>
+        <v>6991557.367896893</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11649,7 +11644,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11659,7 +11654,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11686,10 +11681,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111254048</v>
+        <v>111254369</v>
       </c>
       <c r="B99" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11702,21 +11697,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11727,10 +11722,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>569413.9649865336</v>
+        <v>569423.6621602169</v>
       </c>
       <c r="R99" t="n">
-        <v>6991519.104081177</v>
+        <v>6991448.064345377</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11762,7 +11757,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -11772,12 +11767,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>16:29</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11804,10 +11794,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111254559</v>
+        <v>111254324</v>
       </c>
       <c r="B100" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11816,25 +11806,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11845,10 +11835,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>569369.699462823</v>
+        <v>569420.3554430183</v>
       </c>
       <c r="R100" t="n">
-        <v>6991357.510963725</v>
+        <v>6991475.221997982</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11891,11 +11881,6 @@
       <c r="AB100" t="inlineStr">
         <is>
           <t>17:00</t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>Liten bål på gammal senvuxen björk</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11922,10 +11907,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111250347</v>
+        <v>111254559</v>
       </c>
       <c r="B101" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11938,21 +11923,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11963,10 +11948,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>569291.1779632393</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R101" t="n">
-        <v>6991715.24049816</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -11998,7 +11983,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12008,7 +11993,12 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Liten bål på gammal senvuxen björk</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12035,10 +12025,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111249624</v>
+        <v>111251574</v>
       </c>
       <c r="B102" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12047,25 +12037,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12076,10 +12066,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>569336.6363618984</v>
+        <v>569311.4872073382</v>
       </c>
       <c r="R102" t="n">
-        <v>6991693.067832828</v>
+        <v>6991870.858826003</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12111,7 +12101,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12121,7 +12111,12 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>På björk och gran</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12148,10 +12143,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111251336</v>
+        <v>111251532</v>
       </c>
       <c r="B103" t="n">
-        <v>78611</v>
+        <v>96381</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12164,21 +12159,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6463</v>
+        <v>219874</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12189,10 +12184,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>569298.1228686108</v>
+        <v>569293.3011180179</v>
       </c>
       <c r="R103" t="n">
-        <v>6991879.64871443</v>
+        <v>6991871.378452423</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12261,10 +12256,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111252263</v>
+        <v>111252281</v>
       </c>
       <c r="B104" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12277,21 +12272,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>

--- a/artfynd/A 6223-2020.xlsx
+++ b/artfynd/A 6223-2020.xlsx
@@ -12369,10 +12369,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111250541</v>
+        <v>111254771</v>
       </c>
       <c r="B105" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12381,25 +12381,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12410,10 +12410,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>569352.0774200963</v>
+        <v>569372.2038656139</v>
       </c>
       <c r="R105" t="n">
-        <v>6991736.051629628</v>
+        <v>6991325.343115335</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12482,10 +12482,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111254771</v>
+        <v>111250541</v>
       </c>
       <c r="B106" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12494,25 +12494,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12523,10 +12523,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>569372.2038656139</v>
+        <v>569352.0774200963</v>
       </c>
       <c r="R106" t="n">
-        <v>6991325.343115335</v>
+        <v>6991736.051629628</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 6223-2020.xlsx
+++ b/artfynd/A 6223-2020.xlsx
@@ -3201,10 +3201,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102690042</v>
+        <v>102947199</v>
       </c>
       <c r="B24" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3217,38 +3217,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>569253.7617982501</v>
+        <v>568948.4583109618</v>
       </c>
       <c r="R24" t="n">
-        <v>6991360.030438415</v>
+        <v>6991720.202473838</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3272,7 +3271,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3282,7 +3281,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3302,22 +3301,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>102690032</v>
+        <v>102947997</v>
       </c>
       <c r="B25" t="n">
-        <v>78569</v>
+        <v>94121</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3330,38 +3329,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>569260.962068707</v>
+        <v>569115.310541083</v>
       </c>
       <c r="R25" t="n">
-        <v>6991342.031109948</v>
+        <v>6991737.359915999</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3385,7 +3383,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3395,7 +3393,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3415,22 +3413,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102689884</v>
+        <v>102947198</v>
       </c>
       <c r="B26" t="n">
-        <v>78569</v>
+        <v>93148</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3439,42 +3437,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>1079</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>569360.7040222746</v>
+        <v>568996.52534089</v>
       </c>
       <c r="R26" t="n">
-        <v>6991289.245431411</v>
+        <v>6991724.852819067</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3498,7 +3495,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3508,7 +3505,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3528,22 +3525,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102689900</v>
+        <v>102947185</v>
       </c>
       <c r="B27" t="n">
-        <v>78569</v>
+        <v>89406</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3556,38 +3553,37 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>569346.6997027611</v>
+        <v>569264.1871921142</v>
       </c>
       <c r="R27" t="n">
-        <v>6991285.31596909</v>
+        <v>6991745.067437531</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3611,7 +3607,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3621,7 +3617,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3641,22 +3637,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102689966</v>
+        <v>102947193</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>94121</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3669,38 +3665,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>569309.7897322553</v>
+        <v>569122.6725224827</v>
       </c>
       <c r="R28" t="n">
-        <v>6991268.644606683</v>
+        <v>6991690.324666103</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3724,7 +3719,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3734,17 +3729,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>På tall</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3759,22 +3749,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>102690045</v>
+        <v>102948003</v>
       </c>
       <c r="B29" t="n">
-        <v>95519</v>
+        <v>78569</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3783,43 +3773,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221945</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>569253.7617982501</v>
+        <v>569029.1498534468</v>
       </c>
       <c r="R29" t="n">
-        <v>6991360.030438415</v>
+        <v>6991729.175800722</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3843,7 +3831,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3853,12 +3841,17 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>på björk</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3873,22 +3866,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>102689869</v>
+        <v>102948000</v>
       </c>
       <c r="B30" t="n">
-        <v>78569</v>
+        <v>89832</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3897,42 +3890,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>569341.0267158477</v>
+        <v>569106.5802551997</v>
       </c>
       <c r="R30" t="n">
-        <v>6991274.30302307</v>
+        <v>6991635.075665417</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3956,7 +3948,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3966,7 +3958,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3986,22 +3978,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>102689946</v>
+        <v>102947183</v>
       </c>
       <c r="B31" t="n">
-        <v>89406</v>
+        <v>96334</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4010,42 +4002,41 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>569331.0530663347</v>
+        <v>569329.5646021223</v>
       </c>
       <c r="R31" t="n">
-        <v>6991251.852494733</v>
+        <v>6991619.858840872</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4069,7 +4060,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4079,7 +4070,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4099,22 +4090,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>102947199</v>
+        <v>102947200</v>
       </c>
       <c r="B32" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4127,21 +4118,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4223,10 +4214,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>102947997</v>
+        <v>102947202</v>
       </c>
       <c r="B33" t="n">
-        <v>94121</v>
+        <v>78569</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4239,21 +4230,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4263,10 +4254,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>569115.310541083</v>
+        <v>568896.9868669814</v>
       </c>
       <c r="R33" t="n">
-        <v>6991737.359915999</v>
+        <v>6991597.499371806</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4309,6 +4300,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>fertil</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4335,10 +4331,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>102947198</v>
+        <v>102948001</v>
       </c>
       <c r="B34" t="n">
-        <v>93148</v>
+        <v>81236</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4347,25 +4343,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1079</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4375,10 +4371,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>568996.52534089</v>
+        <v>569022.9660235754</v>
       </c>
       <c r="R34" t="n">
-        <v>6991724.852819067</v>
+        <v>6991742.203603177</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4447,10 +4443,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>102947185</v>
+        <v>102947188</v>
       </c>
       <c r="B35" t="n">
-        <v>89406</v>
+        <v>96334</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4459,25 +4455,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4487,10 +4483,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>569264.1871921142</v>
+        <v>569209.9366499954</v>
       </c>
       <c r="R35" t="n">
-        <v>6991745.067437531</v>
+        <v>6991817.420502679</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4559,10 +4555,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>102947193</v>
+        <v>102948009</v>
       </c>
       <c r="B36" t="n">
-        <v>94121</v>
+        <v>89392</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4575,21 +4571,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4599,10 +4595,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>569122.6725224827</v>
+        <v>568929.0025953393</v>
       </c>
       <c r="R36" t="n">
-        <v>6991690.324666103</v>
+        <v>6991587.741271529</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4671,10 +4667,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>102948003</v>
+        <v>102947184</v>
       </c>
       <c r="B37" t="n">
-        <v>78569</v>
+        <v>94121</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4687,21 +4683,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4711,10 +4707,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>569029.1498534468</v>
+        <v>569285.0123859895</v>
       </c>
       <c r="R37" t="n">
-        <v>6991729.175800722</v>
+        <v>6991727.36076533</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4757,11 +4753,6 @@
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>på björk</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4788,10 +4779,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>102948000</v>
+        <v>102947191</v>
       </c>
       <c r="B38" t="n">
-        <v>89832</v>
+        <v>96367</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4800,25 +4791,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1209</v>
+        <v>219874</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4828,10 +4819,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>569106.5802551997</v>
+        <v>569113.2453680928</v>
       </c>
       <c r="R38" t="n">
-        <v>6991635.075665417</v>
+        <v>6991813.093763697</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4900,7 +4891,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>102947183</v>
+        <v>102947194</v>
       </c>
       <c r="B39" t="n">
         <v>96334</v>
@@ -4940,10 +4931,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>569329.5646021223</v>
+        <v>569142.9176101908</v>
       </c>
       <c r="R39" t="n">
-        <v>6991619.858840872</v>
+        <v>6991678.503519272</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5012,10 +5003,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>102947200</v>
+        <v>102947989</v>
       </c>
       <c r="B40" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5028,21 +5019,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5052,10 +5043,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>568948.4583109618</v>
+        <v>569187.0114914521</v>
       </c>
       <c r="R40" t="n">
-        <v>6991720.202473838</v>
+        <v>6991570.988474617</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5124,10 +5115,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>102947202</v>
+        <v>102947189</v>
       </c>
       <c r="B41" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5136,25 +5127,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5164,10 +5155,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>568896.9868669814</v>
+        <v>569172.0855607488</v>
       </c>
       <c r="R41" t="n">
-        <v>6991597.499371806</v>
+        <v>6991823.874591663</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5210,11 +5201,6 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>fertil</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5241,10 +5227,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>102948001</v>
+        <v>102947990</v>
       </c>
       <c r="B42" t="n">
-        <v>81236</v>
+        <v>77258</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5257,21 +5243,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1312</v>
+        <v>6446</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5281,10 +5267,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>569022.9660235754</v>
+        <v>569275.1856051408</v>
       </c>
       <c r="R42" t="n">
-        <v>6991742.203603177</v>
+        <v>6991634.127725122</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5353,10 +5339,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>102947188</v>
+        <v>102947201</v>
       </c>
       <c r="B43" t="n">
-        <v>96334</v>
+        <v>96232</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5365,25 +5351,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>219795</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönkulla</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Coeloglossum viride</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hartm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5393,10 +5379,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>569209.9366499954</v>
+        <v>568879.0876060606</v>
       </c>
       <c r="R43" t="n">
-        <v>6991817.420502679</v>
+        <v>6991670.178078793</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5465,10 +5451,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>102948009</v>
+        <v>103002813</v>
       </c>
       <c r="B44" t="n">
-        <v>89392</v>
+        <v>81236</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5481,21 +5467,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5505,10 +5491,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>568929.0025953393</v>
+        <v>568916.0058267252</v>
       </c>
       <c r="R44" t="n">
-        <v>6991587.741271529</v>
+        <v>6991600.625336514</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5565,22 +5551,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>102947184</v>
+        <v>111254241</v>
       </c>
       <c r="B45" t="n">
-        <v>94121</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5593,37 +5579,38 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>569285.0123859895</v>
+        <v>569420.3554430183</v>
       </c>
       <c r="R45" t="n">
-        <v>6991727.36076533</v>
+        <v>6991475.221997982</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5647,22 +5634,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5677,22 +5664,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>102947191</v>
+        <v>111252263</v>
       </c>
       <c r="B46" t="n">
-        <v>96367</v>
+        <v>89405</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5701,41 +5688,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>219874</v>
+        <v>1202</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>569113.2453680928</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R46" t="n">
-        <v>6991813.093763697</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5759,22 +5747,22 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5789,22 +5777,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>102947194</v>
+        <v>111251612</v>
       </c>
       <c r="B47" t="n">
-        <v>96334</v>
+        <v>89686</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5813,41 +5801,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>569142.9176101908</v>
+        <v>569311.4872073382</v>
       </c>
       <c r="R47" t="n">
-        <v>6991678.503519272</v>
+        <v>6991870.858826003</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5871,22 +5860,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5901,22 +5890,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>102947989</v>
+        <v>111249281</v>
       </c>
       <c r="B48" t="n">
-        <v>89410</v>
+        <v>78612</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5925,41 +5914,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>6464</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>569187.0114914521</v>
+        <v>569357.4928990568</v>
       </c>
       <c r="R48" t="n">
-        <v>6991570.988474617</v>
+        <v>6991631.345539477</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5983,22 +5973,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6013,22 +6003,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>102947189</v>
+        <v>111250493</v>
       </c>
       <c r="B49" t="n">
-        <v>96334</v>
+        <v>78578</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6037,41 +6027,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>569172.0855607488</v>
+        <v>569352.0774200963</v>
       </c>
       <c r="R49" t="n">
-        <v>6991823.874591663</v>
+        <v>6991736.051629628</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6095,22 +6086,22 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6125,22 +6116,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>102947990</v>
+        <v>111249480</v>
       </c>
       <c r="B50" t="n">
-        <v>77258</v>
+        <v>89405</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6153,37 +6144,38 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>569275.1856051408</v>
+        <v>569345.4513511715</v>
       </c>
       <c r="R50" t="n">
-        <v>6991634.127725122</v>
+        <v>6991641.979281792</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6207,22 +6199,22 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6237,22 +6229,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>102947201</v>
+        <v>111249030</v>
       </c>
       <c r="B51" t="n">
-        <v>96232</v>
+        <v>89405</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6261,41 +6253,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>219795</v>
+        <v>1202</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Grönkulla</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Coeloglossum viride</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hartm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>568879.0876060606</v>
+        <v>569312.2187498846</v>
       </c>
       <c r="R51" t="n">
-        <v>6991670.178078793</v>
+        <v>6991580.917124028</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6319,22 +6312,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6349,22 +6342,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>103002813</v>
+        <v>111250347</v>
       </c>
       <c r="B52" t="n">
-        <v>81236</v>
+        <v>89686</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6377,37 +6370,38 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>568916.0058267252</v>
+        <v>569291.1779632393</v>
       </c>
       <c r="R52" t="n">
-        <v>6991600.625336514</v>
+        <v>6991715.24049816</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6431,22 +6425,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6461,22 +6455,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111254241</v>
+        <v>111249744</v>
       </c>
       <c r="B53" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6485,25 +6479,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6514,10 +6508,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>569420.3554430183</v>
+        <v>569347.6725137118</v>
       </c>
       <c r="R53" t="n">
-        <v>6991475.221997982</v>
+        <v>6991686.950512252</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6549,7 +6543,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6559,7 +6553,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6586,10 +6580,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111252263</v>
+        <v>111251801</v>
       </c>
       <c r="B54" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6602,21 +6596,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6627,10 +6621,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>569383.1558505741</v>
+        <v>569335.4523670888</v>
       </c>
       <c r="R54" t="n">
-        <v>6991727.63971243</v>
+        <v>6991855.03516248</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6662,7 +6656,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6672,7 +6666,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6699,10 +6693,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111251612</v>
+        <v>111251387</v>
       </c>
       <c r="B55" t="n">
-        <v>89686</v>
+        <v>95532</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6711,25 +6705,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>658</v>
+        <v>221945</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6740,10 +6734,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>569311.4872073382</v>
+        <v>569286.1694550777</v>
       </c>
       <c r="R55" t="n">
-        <v>6991870.858826003</v>
+        <v>6991886.199991896</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6812,10 +6806,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111249281</v>
+        <v>111251276</v>
       </c>
       <c r="B56" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6824,25 +6818,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6853,10 +6847,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>569357.4928990568</v>
+        <v>569298.1228686108</v>
       </c>
       <c r="R56" t="n">
-        <v>6991631.345539477</v>
+        <v>6991879.64871443</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6888,7 +6882,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6898,7 +6892,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6925,10 +6919,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111254528</v>
+        <v>111254048</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6941,21 +6935,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6966,10 +6960,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>569369.699462823</v>
+        <v>569413.9649865336</v>
       </c>
       <c r="R57" t="n">
-        <v>6991357.510963725</v>
+        <v>6991519.104081177</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7001,7 +6995,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7011,7 +7005,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:29</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7038,7 +7037,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111250493</v>
+        <v>111249372</v>
       </c>
       <c r="B58" t="n">
         <v>78578</v>
@@ -7079,10 +7078,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>569352.0774200963</v>
+        <v>569345.1029144006</v>
       </c>
       <c r="R58" t="n">
-        <v>6991736.051629628</v>
+        <v>6991658.307856695</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7114,7 +7113,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7124,7 +7123,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7151,10 +7150,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111249480</v>
+        <v>111249850</v>
       </c>
       <c r="B59" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7167,21 +7166,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7192,10 +7191,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>569345.4513511715</v>
+        <v>569339.2156779077</v>
       </c>
       <c r="R59" t="n">
-        <v>6991641.979281792</v>
+        <v>6991721.256613475</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7227,7 +7226,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7237,7 +7236,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7264,10 +7263,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111249030</v>
+        <v>111249332</v>
       </c>
       <c r="B60" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7280,21 +7279,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7305,10 +7304,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>569312.2187498846</v>
+        <v>569357.4928990568</v>
       </c>
       <c r="R60" t="n">
-        <v>6991580.917124028</v>
+        <v>6991631.345539477</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7340,7 +7339,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7350,7 +7349,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7377,10 +7376,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111250347</v>
+        <v>111251881</v>
       </c>
       <c r="B61" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7393,21 +7392,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7418,10 +7417,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>569291.1779632393</v>
+        <v>569355.4842857358</v>
       </c>
       <c r="R61" t="n">
-        <v>6991715.24049816</v>
+        <v>6991853.193911698</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7453,7 +7452,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7463,7 +7462,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7490,7 +7489,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111249744</v>
+        <v>111250393</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7531,10 +7530,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>569347.6725137118</v>
+        <v>569307.0354643038</v>
       </c>
       <c r="R62" t="n">
-        <v>6991686.950512252</v>
+        <v>6991738.720787689</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7566,7 +7565,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7576,7 +7575,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7603,10 +7602,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111251801</v>
+        <v>111251336</v>
       </c>
       <c r="B63" t="n">
-        <v>89686</v>
+        <v>78611</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7615,25 +7614,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>658</v>
+        <v>6463</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7644,10 +7643,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>569335.4523670888</v>
+        <v>569298.1228686108</v>
       </c>
       <c r="R63" t="n">
-        <v>6991855.03516248</v>
+        <v>6991879.64871443</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7716,10 +7715,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111251387</v>
+        <v>111250729</v>
       </c>
       <c r="B64" t="n">
-        <v>95532</v>
+        <v>96348</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7728,25 +7727,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7757,10 +7756,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>569286.1694550777</v>
+        <v>569335.0375771614</v>
       </c>
       <c r="R64" t="n">
-        <v>6991886.199991896</v>
+        <v>6991831.885005536</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7829,10 +7828,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111251276</v>
+        <v>111249376</v>
       </c>
       <c r="B65" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7841,25 +7840,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7870,10 +7869,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>569298.1228686108</v>
+        <v>569345.1029144006</v>
       </c>
       <c r="R65" t="n">
-        <v>6991879.64871443</v>
+        <v>6991658.307856695</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7905,7 +7904,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7915,7 +7914,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7942,7 +7941,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111254048</v>
+        <v>111254429</v>
       </c>
       <c r="B66" t="n">
         <v>77515</v>
@@ -7983,10 +7982,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>569413.9649865336</v>
+        <v>569389.9446826552</v>
       </c>
       <c r="R66" t="n">
-        <v>6991519.104081177</v>
+        <v>6991409.678100795</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8018,7 +8017,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8028,7 +8027,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -8060,10 +8059,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111249372</v>
+        <v>111250796</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8076,21 +8075,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8101,10 +8100,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>569345.1029144006</v>
+        <v>569335.4523670888</v>
       </c>
       <c r="R67" t="n">
-        <v>6991658.307856695</v>
+        <v>6991855.03516248</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8136,7 +8135,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8146,7 +8145,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8173,10 +8172,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111249850</v>
+        <v>111249831</v>
       </c>
       <c r="B68" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8189,21 +8188,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8214,10 +8213,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>569339.2156779077</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R68" t="n">
-        <v>6991721.256613475</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8286,10 +8285,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111249332</v>
+        <v>111253942</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8302,21 +8301,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8327,10 +8326,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>569357.4928990568</v>
+        <v>569401.555805147</v>
       </c>
       <c r="R69" t="n">
-        <v>6991631.345539477</v>
+        <v>6991525.645999004</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8362,7 +8361,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8372,7 +8371,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8399,7 +8398,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111251881</v>
+        <v>111254202</v>
       </c>
       <c r="B70" t="n">
         <v>78578</v>
@@ -8440,10 +8439,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>569355.4842857358</v>
+        <v>569425.1387308423</v>
       </c>
       <c r="R70" t="n">
-        <v>6991853.193911698</v>
+        <v>6991485.307824904</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8475,7 +8474,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8485,7 +8484,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8512,10 +8511,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111250393</v>
+        <v>111252252</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>89590</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8528,21 +8527,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>48</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8553,10 +8552,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>569307.0354643038</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R71" t="n">
-        <v>6991738.720787689</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8588,7 +8587,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8598,7 +8597,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8625,10 +8624,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111251336</v>
+        <v>111248624</v>
       </c>
       <c r="B72" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8637,25 +8636,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8666,10 +8665,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>569298.1228686108</v>
+        <v>569280.5017285499</v>
       </c>
       <c r="R72" t="n">
-        <v>6991879.64871443</v>
+        <v>6991555.282407867</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8701,7 +8700,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8711,7 +8710,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8738,10 +8737,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111250729</v>
+        <v>111248967</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8750,25 +8749,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8779,10 +8778,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>569335.0375771614</v>
+        <v>569325.8740521516</v>
       </c>
       <c r="R73" t="n">
-        <v>6991831.885005536</v>
+        <v>6991579.847034768</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8814,7 +8813,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8824,7 +8823,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8851,10 +8850,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111249376</v>
+        <v>111248638</v>
       </c>
       <c r="B74" t="n">
-        <v>78611</v>
+        <v>77267</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8863,25 +8862,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6463</v>
+        <v>6446</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8892,10 +8891,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>569345.1029144006</v>
+        <v>569273.0602891329</v>
       </c>
       <c r="R74" t="n">
-        <v>6991658.307856695</v>
+        <v>6991563.292001127</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8927,7 +8926,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8937,7 +8936,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8964,10 +8963,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111254429</v>
+        <v>111249624</v>
       </c>
       <c r="B75" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8976,25 +8975,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9005,10 +9004,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>569389.9446826552</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R75" t="n">
-        <v>6991409.678100795</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9040,7 +9039,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9050,12 +9049,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9082,10 +9076,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111250796</v>
+        <v>111253829</v>
       </c>
       <c r="B76" t="n">
-        <v>89423</v>
+        <v>77186</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9098,21 +9092,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5432</v>
+        <v>353</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9123,10 +9117,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>569335.4523670888</v>
+        <v>569380.6327735524</v>
       </c>
       <c r="R76" t="n">
-        <v>6991855.03516248</v>
+        <v>6991526.560634119</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9158,7 +9152,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9168,7 +9162,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9195,10 +9189,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111249831</v>
+        <v>111250643</v>
       </c>
       <c r="B77" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9211,21 +9205,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9236,10 +9230,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>569336.6363618984</v>
+        <v>569344.7032350204</v>
       </c>
       <c r="R77" t="n">
-        <v>6991693.067832828</v>
+        <v>6991762.212588392</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9271,7 +9265,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9281,7 +9275,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9308,10 +9302,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111253942</v>
+        <v>111248259</v>
       </c>
       <c r="B78" t="n">
-        <v>77267</v>
+        <v>89686</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9324,21 +9318,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6446</v>
+        <v>658</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9349,10 +9343,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>569401.555805147</v>
+        <v>569165.6920703583</v>
       </c>
       <c r="R78" t="n">
-        <v>6991525.645999004</v>
+        <v>6991547.845184474</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9384,7 +9378,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9394,7 +9388,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9421,10 +9415,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111254202</v>
+        <v>111249909</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9437,21 +9431,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9462,10 +9456,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>569425.1387308423</v>
+        <v>569311.1236418867</v>
       </c>
       <c r="R79" t="n">
-        <v>6991485.307824904</v>
+        <v>6991717.480934915</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9497,7 +9491,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9507,7 +9501,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9534,10 +9528,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111252252</v>
+        <v>111249939</v>
       </c>
       <c r="B80" t="n">
-        <v>89590</v>
+        <v>89686</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9546,25 +9540,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9575,10 +9569,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>569383.1558505741</v>
+        <v>569329.4847762987</v>
       </c>
       <c r="R80" t="n">
-        <v>6991727.63971243</v>
+        <v>6991708.797230477</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9610,7 +9604,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9620,7 +9614,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9647,10 +9641,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111248624</v>
+        <v>111252314</v>
       </c>
       <c r="B81" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9663,21 +9657,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9688,10 +9682,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>569280.5017285499</v>
+        <v>569375.9390762256</v>
       </c>
       <c r="R81" t="n">
-        <v>6991555.282407867</v>
+        <v>6991682.562339606</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -9723,7 +9717,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9733,7 +9727,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9760,10 +9754,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111248967</v>
+        <v>111251249</v>
       </c>
       <c r="B82" t="n">
-        <v>77186</v>
+        <v>77515</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9776,21 +9770,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9801,10 +9795,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>569325.8740521516</v>
+        <v>569319.401580702</v>
       </c>
       <c r="R82" t="n">
-        <v>6991579.847034768</v>
+        <v>6991861.95269735</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -9836,7 +9830,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9846,7 +9840,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9873,10 +9867,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111248638</v>
+        <v>111250234</v>
       </c>
       <c r="B83" t="n">
-        <v>77267</v>
+        <v>89686</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9889,21 +9883,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6446</v>
+        <v>658</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9914,10 +9908,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>569273.0602891329</v>
+        <v>569295.4300983869</v>
       </c>
       <c r="R83" t="n">
-        <v>6991563.292001127</v>
+        <v>6991707.617092772</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -9949,7 +9943,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9959,7 +9953,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9986,10 +9980,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111249624</v>
+        <v>111251085</v>
       </c>
       <c r="B84" t="n">
-        <v>89369</v>
+        <v>94134</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9998,25 +9992,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10027,10 +10021,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>569336.6363618984</v>
+        <v>569308.5885678579</v>
       </c>
       <c r="R84" t="n">
-        <v>6991693.067832828</v>
+        <v>6991857.638304747</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10062,7 +10056,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -10072,7 +10066,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10099,10 +10093,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111254776</v>
+        <v>111248740</v>
       </c>
       <c r="B85" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10111,25 +10105,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10140,10 +10134,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>569346.6997027611</v>
+        <v>569294.9201144365</v>
       </c>
       <c r="R85" t="n">
-        <v>6991285.31596909</v>
+        <v>6991582.363368088</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10175,7 +10169,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -10185,7 +10179,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10212,10 +10206,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111253829</v>
+        <v>111249822</v>
       </c>
       <c r="B86" t="n">
-        <v>77186</v>
+        <v>89686</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10228,21 +10222,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>353</v>
+        <v>658</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10253,10 +10247,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>569380.6327735524</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R86" t="n">
-        <v>6991526.560634119</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10288,7 +10282,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10298,7 +10292,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10325,10 +10319,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111250643</v>
+        <v>111248575</v>
       </c>
       <c r="B87" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10337,25 +10331,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10366,10 +10360,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>569344.7032350204</v>
+        <v>569293.1809982734</v>
       </c>
       <c r="R87" t="n">
-        <v>6991762.212588392</v>
+        <v>6991557.367896893</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10401,7 +10395,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10411,7 +10405,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10438,10 +10432,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111248259</v>
+        <v>111254369</v>
       </c>
       <c r="B88" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10454,21 +10448,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10479,10 +10473,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>569165.6920703583</v>
+        <v>569423.6621602169</v>
       </c>
       <c r="R88" t="n">
-        <v>6991547.845184474</v>
+        <v>6991448.064345377</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10514,7 +10508,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10524,7 +10518,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10551,10 +10545,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111249909</v>
+        <v>111254324</v>
       </c>
       <c r="B89" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10563,25 +10557,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10592,10 +10586,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>569311.1236418867</v>
+        <v>569420.3554430183</v>
       </c>
       <c r="R89" t="n">
-        <v>6991717.480934915</v>
+        <v>6991475.221997982</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10627,7 +10621,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10637,7 +10631,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10664,10 +10658,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111249939</v>
+        <v>111251574</v>
       </c>
       <c r="B90" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10680,21 +10674,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10705,10 +10699,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>569329.4847762987</v>
+        <v>569311.4872073382</v>
       </c>
       <c r="R90" t="n">
-        <v>6991708.797230477</v>
+        <v>6991870.858826003</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10740,7 +10734,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10750,7 +10744,12 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>På björk och gran</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10777,10 +10776,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111252314</v>
+        <v>111251532</v>
       </c>
       <c r="B91" t="n">
-        <v>89686</v>
+        <v>96381</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10789,25 +10788,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>658</v>
+        <v>219874</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10818,10 +10817,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>569375.9390762256</v>
+        <v>569293.3011180179</v>
       </c>
       <c r="R91" t="n">
-        <v>6991682.562339606</v>
+        <v>6991871.378452423</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10853,7 +10852,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10863,7 +10862,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10890,10 +10889,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111251249</v>
+        <v>111252281</v>
       </c>
       <c r="B92" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10906,21 +10905,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10931,10 +10930,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>569319.401580702</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R92" t="n">
-        <v>6991861.95269735</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -10966,7 +10965,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10976,7 +10975,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11003,10 +11002,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111250234</v>
+        <v>111250541</v>
       </c>
       <c r="B93" t="n">
-        <v>89686</v>
+        <v>89369</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11015,25 +11014,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>658</v>
+        <v>5447</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11044,10 +11043,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>569295.4300983869</v>
+        <v>569352.0774200963</v>
       </c>
       <c r="R93" t="n">
-        <v>6991707.617092772</v>
+        <v>6991736.051629628</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11079,7 +11078,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11089,7 +11088,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11116,10 +11115,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111251085</v>
+        <v>102690042</v>
       </c>
       <c r="B94" t="n">
-        <v>94134</v>
+        <v>78569</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11132,21 +11131,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11157,10 +11156,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>569308.5885678579</v>
+        <v>569253.7617982501</v>
       </c>
       <c r="R94" t="n">
-        <v>6991857.638304747</v>
+        <v>6991360.030438415</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11187,22 +11186,22 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11229,10 +11228,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111254715</v>
+        <v>102690032</v>
       </c>
       <c r="B95" t="n">
-        <v>96348</v>
+        <v>78569</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11241,25 +11240,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11270,10 +11269,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>569369.699462823</v>
+        <v>569260.962068707</v>
       </c>
       <c r="R95" t="n">
-        <v>6991357.510963725</v>
+        <v>6991342.031109948</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11300,22 +11299,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11342,10 +11341,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111248740</v>
+        <v>102689884</v>
       </c>
       <c r="B96" t="n">
-        <v>96348</v>
+        <v>78569</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11354,25 +11353,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11383,10 +11382,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>569294.9201144365</v>
+        <v>569360.7040222746</v>
       </c>
       <c r="R96" t="n">
-        <v>6991582.363368088</v>
+        <v>6991289.245431411</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11413,22 +11412,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11455,10 +11454,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111249822</v>
+        <v>102689900</v>
       </c>
       <c r="B97" t="n">
-        <v>89686</v>
+        <v>78569</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11471,21 +11470,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11496,10 +11495,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>569336.6363618984</v>
+        <v>569346.6997027611</v>
       </c>
       <c r="R97" t="n">
-        <v>6991693.067832828</v>
+        <v>6991285.31596909</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11526,22 +11525,22 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11568,10 +11567,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111248575</v>
+        <v>102689966</v>
       </c>
       <c r="B98" t="n">
-        <v>96348</v>
+        <v>77506</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11580,25 +11579,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11609,10 +11608,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>569293.1809982734</v>
+        <v>569309.7897322553</v>
       </c>
       <c r="R98" t="n">
-        <v>6991557.367896893</v>
+        <v>6991268.644606683</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11639,22 +11638,27 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11681,10 +11685,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111254369</v>
+        <v>102690045</v>
       </c>
       <c r="B99" t="n">
-        <v>78578</v>
+        <v>95519</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11693,39 +11697,40 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>569423.6621602169</v>
+        <v>569253.7617982501</v>
       </c>
       <c r="R99" t="n">
-        <v>6991448.064345377</v>
+        <v>6991360.030438415</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11752,22 +11757,22 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11794,10 +11799,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111254324</v>
+        <v>102689869</v>
       </c>
       <c r="B100" t="n">
-        <v>96348</v>
+        <v>78569</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11806,25 +11811,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11835,10 +11840,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>569420.3554430183</v>
+        <v>569341.0267158477</v>
       </c>
       <c r="R100" t="n">
-        <v>6991475.221997982</v>
+        <v>6991274.30302307</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11865,22 +11870,22 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11907,10 +11912,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111254559</v>
+        <v>102689946</v>
       </c>
       <c r="B101" t="n">
-        <v>78578</v>
+        <v>89406</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11923,21 +11928,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11948,10 +11953,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>569369.699462823</v>
+        <v>569331.0530663347</v>
       </c>
       <c r="R101" t="n">
-        <v>6991357.510963725</v>
+        <v>6991251.852494733</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -11978,27 +11983,22 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>Liten bål på gammal senvuxen björk</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12025,10 +12025,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111251574</v>
+        <v>111254528</v>
       </c>
       <c r="B102" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12041,21 +12041,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>569311.4872073382</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R102" t="n">
-        <v>6991870.858826003</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12111,12 +12111,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>14:18</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>På björk och gran</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12143,10 +12138,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111251532</v>
+        <v>111254776</v>
       </c>
       <c r="B103" t="n">
-        <v>96381</v>
+        <v>78611</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12159,21 +12154,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>219874</v>
+        <v>6463</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12184,10 +12179,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>569293.3011180179</v>
+        <v>569346.6997027611</v>
       </c>
       <c r="R103" t="n">
-        <v>6991871.378452423</v>
+        <v>6991285.31596909</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12219,7 +12214,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12229,7 +12224,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12256,10 +12251,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111252281</v>
+        <v>111254715</v>
       </c>
       <c r="B104" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12268,25 +12263,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12297,10 +12292,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>569383.1558505741</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R104" t="n">
-        <v>6991727.63971243</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12332,7 +12327,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12342,7 +12337,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12369,7 +12364,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111254771</v>
+        <v>111254559</v>
       </c>
       <c r="B105" t="n">
         <v>78578</v>
@@ -12410,10 +12405,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>569372.2038656139</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R105" t="n">
-        <v>6991325.343115335</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12445,7 +12440,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12455,7 +12450,12 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>Liten bål på gammal senvuxen björk</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12482,10 +12482,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111250541</v>
+        <v>111254771</v>
       </c>
       <c r="B106" t="n">
-        <v>89369</v>
+        <v>78578</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12494,25 +12494,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12523,10 +12523,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>569352.0774200963</v>
+        <v>569372.2038656139</v>
       </c>
       <c r="R106" t="n">
-        <v>6991736.051629628</v>
+        <v>6991325.343115335</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 6223-2020.xlsx
+++ b/artfynd/A 6223-2020.xlsx
@@ -3201,10 +3201,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102947199</v>
+        <v>102690042</v>
       </c>
       <c r="B24" t="n">
-        <v>89673</v>
+        <v>78569</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3217,37 +3217,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>568948.4583109618</v>
+        <v>569253.7617982501</v>
       </c>
       <c r="R24" t="n">
-        <v>6991720.202473838</v>
+        <v>6991360.030438415</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3271,7 +3272,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3281,7 +3282,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3301,22 +3302,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>102947997</v>
+        <v>102690032</v>
       </c>
       <c r="B25" t="n">
-        <v>94121</v>
+        <v>78569</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3329,37 +3330,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>569115.310541083</v>
+        <v>569260.962068707</v>
       </c>
       <c r="R25" t="n">
-        <v>6991737.359915999</v>
+        <v>6991342.031109948</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3383,7 +3385,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3393,7 +3395,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3413,22 +3415,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102947198</v>
+        <v>102689884</v>
       </c>
       <c r="B26" t="n">
-        <v>93148</v>
+        <v>78569</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3437,41 +3439,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1079</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Aspfjädermossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Neckera pennata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>568996.52534089</v>
+        <v>569360.7040222746</v>
       </c>
       <c r="R26" t="n">
-        <v>6991724.852819067</v>
+        <v>6991289.245431411</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3495,7 +3498,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3505,7 +3508,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3525,22 +3528,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102947185</v>
+        <v>102689900</v>
       </c>
       <c r="B27" t="n">
-        <v>89406</v>
+        <v>78569</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3553,37 +3556,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>569264.1871921142</v>
+        <v>569346.6997027611</v>
       </c>
       <c r="R27" t="n">
-        <v>6991745.067437531</v>
+        <v>6991285.31596909</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3607,7 +3611,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3617,7 +3621,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3637,22 +3641,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102947193</v>
+        <v>102689966</v>
       </c>
       <c r="B28" t="n">
-        <v>94121</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3665,37 +3669,38 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>569122.6725224827</v>
+        <v>569309.7897322553</v>
       </c>
       <c r="R28" t="n">
-        <v>6991690.324666103</v>
+        <v>6991268.644606683</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3719,7 +3724,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3729,12 +3734,17 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3749,22 +3759,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>102948003</v>
+        <v>102690045</v>
       </c>
       <c r="B29" t="n">
-        <v>78569</v>
+        <v>95519</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3773,41 +3783,43 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>569029.1498534468</v>
+        <v>569253.7617982501</v>
       </c>
       <c r="R29" t="n">
-        <v>6991729.175800722</v>
+        <v>6991360.030438415</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3831,7 +3843,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3841,17 +3853,12 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>på björk</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3866,22 +3873,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>102948000</v>
+        <v>102689869</v>
       </c>
       <c r="B30" t="n">
-        <v>89832</v>
+        <v>78569</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3890,41 +3897,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>569106.5802551997</v>
+        <v>569341.0267158477</v>
       </c>
       <c r="R30" t="n">
-        <v>6991635.075665417</v>
+        <v>6991274.30302307</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3948,7 +3956,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3958,7 +3966,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3978,22 +3986,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>102947183</v>
+        <v>102689946</v>
       </c>
       <c r="B31" t="n">
-        <v>96334</v>
+        <v>89406</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4002,41 +4010,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Getgrottan, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>569329.5646021223</v>
+        <v>569331.0530663347</v>
       </c>
       <c r="R31" t="n">
-        <v>6991619.858840872</v>
+        <v>6991251.852494733</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4060,7 +4069,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4070,7 +4079,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4090,22 +4099,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Louise Almén</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>102947200</v>
+        <v>102947199</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4118,21 +4127,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4214,10 +4223,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>102947202</v>
+        <v>102947997</v>
       </c>
       <c r="B33" t="n">
-        <v>78569</v>
+        <v>94121</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4230,21 +4239,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4254,10 +4263,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>568896.9868669814</v>
+        <v>569115.310541083</v>
       </c>
       <c r="R33" t="n">
-        <v>6991597.499371806</v>
+        <v>6991737.359915999</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4300,11 +4309,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>fertil</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4331,10 +4335,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>102948001</v>
+        <v>102947198</v>
       </c>
       <c r="B34" t="n">
-        <v>81236</v>
+        <v>93148</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4343,25 +4347,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>1079</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Aspfjädermossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Neckera pennata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4371,10 +4375,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>569022.9660235754</v>
+        <v>568996.52534089</v>
       </c>
       <c r="R34" t="n">
-        <v>6991742.203603177</v>
+        <v>6991724.852819067</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4443,10 +4447,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>102947188</v>
+        <v>102947185</v>
       </c>
       <c r="B35" t="n">
-        <v>96334</v>
+        <v>89406</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4455,25 +4459,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4483,10 +4487,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>569209.9366499954</v>
+        <v>569264.1871921142</v>
       </c>
       <c r="R35" t="n">
-        <v>6991817.420502679</v>
+        <v>6991745.067437531</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4555,10 +4559,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>102948009</v>
+        <v>102947193</v>
       </c>
       <c r="B36" t="n">
-        <v>89392</v>
+        <v>94121</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4571,21 +4575,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4595,10 +4599,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>568929.0025953393</v>
+        <v>569122.6725224827</v>
       </c>
       <c r="R36" t="n">
-        <v>6991587.741271529</v>
+        <v>6991690.324666103</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4667,10 +4671,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>102947184</v>
+        <v>102948003</v>
       </c>
       <c r="B37" t="n">
-        <v>94121</v>
+        <v>78569</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4683,21 +4687,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4707,10 +4711,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>569285.0123859895</v>
+        <v>569029.1498534468</v>
       </c>
       <c r="R37" t="n">
-        <v>6991727.36076533</v>
+        <v>6991729.175800722</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4753,6 +4757,11 @@
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>på björk</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4779,10 +4788,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>102947191</v>
+        <v>102948000</v>
       </c>
       <c r="B38" t="n">
-        <v>96367</v>
+        <v>89832</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4791,25 +4800,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219874</v>
+        <v>1209</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4819,10 +4828,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>569113.2453680928</v>
+        <v>569106.5802551997</v>
       </c>
       <c r="R38" t="n">
-        <v>6991813.093763697</v>
+        <v>6991635.075665417</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4891,7 +4900,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>102947194</v>
+        <v>102947183</v>
       </c>
       <c r="B39" t="n">
         <v>96334</v>
@@ -4931,10 +4940,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>569142.9176101908</v>
+        <v>569329.5646021223</v>
       </c>
       <c r="R39" t="n">
-        <v>6991678.503519272</v>
+        <v>6991619.858840872</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5003,10 +5012,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>102947989</v>
+        <v>102947200</v>
       </c>
       <c r="B40" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5019,21 +5028,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5043,10 +5052,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>569187.0114914521</v>
+        <v>568948.4583109618</v>
       </c>
       <c r="R40" t="n">
-        <v>6991570.988474617</v>
+        <v>6991720.202473838</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5115,10 +5124,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>102947189</v>
+        <v>102947202</v>
       </c>
       <c r="B41" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5127,25 +5136,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5155,10 +5164,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>569172.0855607488</v>
+        <v>568896.9868669814</v>
       </c>
       <c r="R41" t="n">
-        <v>6991823.874591663</v>
+        <v>6991597.499371806</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5201,6 +5210,11 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>fertil</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5227,10 +5241,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>102947990</v>
+        <v>102948001</v>
       </c>
       <c r="B42" t="n">
-        <v>77258</v>
+        <v>81236</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5243,21 +5257,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6446</v>
+        <v>1312</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5267,10 +5281,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>569275.1856051408</v>
+        <v>569022.9660235754</v>
       </c>
       <c r="R42" t="n">
-        <v>6991634.127725122</v>
+        <v>6991742.203603177</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5339,10 +5353,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>102947201</v>
+        <v>102947188</v>
       </c>
       <c r="B43" t="n">
-        <v>96232</v>
+        <v>96334</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5351,25 +5365,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>219795</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grönkulla</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Coeloglossum viride</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hartm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5379,10 +5393,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>568879.0876060606</v>
+        <v>569209.9366499954</v>
       </c>
       <c r="R43" t="n">
-        <v>6991670.178078793</v>
+        <v>6991817.420502679</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5451,10 +5465,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>103002813</v>
+        <v>102948009</v>
       </c>
       <c r="B44" t="n">
-        <v>81236</v>
+        <v>89392</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5467,21 +5481,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5491,10 +5505,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>568916.0058267252</v>
+        <v>568929.0025953393</v>
       </c>
       <c r="R44" t="n">
-        <v>6991600.625336514</v>
+        <v>6991587.741271529</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5551,22 +5565,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111254241</v>
+        <v>102947184</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>94121</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5579,38 +5593,37 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>569420.3554430183</v>
+        <v>569285.0123859895</v>
       </c>
       <c r="R45" t="n">
-        <v>6991475.221997982</v>
+        <v>6991727.36076533</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5634,22 +5647,22 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5664,22 +5677,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111252263</v>
+        <v>102947191</v>
       </c>
       <c r="B46" t="n">
-        <v>89405</v>
+        <v>96367</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5688,42 +5701,41 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1202</v>
+        <v>219874</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>569383.1558505741</v>
+        <v>569113.2453680928</v>
       </c>
       <c r="R46" t="n">
-        <v>6991727.63971243</v>
+        <v>6991813.093763697</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5747,22 +5759,22 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5777,22 +5789,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111251612</v>
+        <v>102947194</v>
       </c>
       <c r="B47" t="n">
-        <v>89686</v>
+        <v>96334</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5801,42 +5813,41 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>569311.4872073382</v>
+        <v>569142.9176101908</v>
       </c>
       <c r="R47" t="n">
-        <v>6991870.858826003</v>
+        <v>6991678.503519272</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5860,22 +5871,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5890,22 +5901,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111249281</v>
+        <v>102947989</v>
       </c>
       <c r="B48" t="n">
-        <v>78612</v>
+        <v>89410</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5914,42 +5925,41 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6464</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>569357.4928990568</v>
+        <v>569187.0114914521</v>
       </c>
       <c r="R48" t="n">
-        <v>6991631.345539477</v>
+        <v>6991570.988474617</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5973,22 +5983,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6003,22 +6013,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111250493</v>
+        <v>102947189</v>
       </c>
       <c r="B49" t="n">
-        <v>78578</v>
+        <v>96334</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6027,42 +6037,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>569352.0774200963</v>
+        <v>569172.0855607488</v>
       </c>
       <c r="R49" t="n">
-        <v>6991736.051629628</v>
+        <v>6991823.874591663</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6086,22 +6095,22 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6116,22 +6125,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111249480</v>
+        <v>102947990</v>
       </c>
       <c r="B50" t="n">
-        <v>89405</v>
+        <v>77258</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6144,38 +6153,37 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>6446</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>569345.4513511715</v>
+        <v>569275.1856051408</v>
       </c>
       <c r="R50" t="n">
-        <v>6991641.979281792</v>
+        <v>6991634.127725122</v>
       </c>
       <c r="S50" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6199,22 +6207,22 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6229,22 +6237,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111249030</v>
+        <v>102947201</v>
       </c>
       <c r="B51" t="n">
-        <v>89405</v>
+        <v>96232</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6253,42 +6261,41 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1202</v>
+        <v>219795</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grönkulla</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Coeloglossum viride</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hartm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>569312.2187498846</v>
+        <v>568879.0876060606</v>
       </c>
       <c r="R51" t="n">
-        <v>6991580.917124028</v>
+        <v>6991670.178078793</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6312,22 +6319,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6342,22 +6349,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Louise Almén</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111250347</v>
+        <v>103002813</v>
       </c>
       <c r="B52" t="n">
-        <v>89686</v>
+        <v>81236</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6370,38 +6377,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>658</v>
+        <v>1312</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Getgrottan, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>569291.1779632393</v>
+        <v>568916.0058267252</v>
       </c>
       <c r="R52" t="n">
-        <v>6991715.24049816</v>
+        <v>6991600.625336514</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6425,22 +6431,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6455,22 +6461,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111249744</v>
+        <v>111254241</v>
       </c>
       <c r="B53" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6479,25 +6485,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6508,10 +6514,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>569347.6725137118</v>
+        <v>569420.3554430183</v>
       </c>
       <c r="R53" t="n">
-        <v>6991686.950512252</v>
+        <v>6991475.221997982</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6543,7 +6549,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6553,7 +6559,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6580,10 +6586,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111251801</v>
+        <v>111252263</v>
       </c>
       <c r="B54" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6596,21 +6602,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6621,10 +6627,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>569335.4523670888</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R54" t="n">
-        <v>6991855.03516248</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6656,7 +6662,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6666,7 +6672,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6693,10 +6699,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111251387</v>
+        <v>111251612</v>
       </c>
       <c r="B55" t="n">
-        <v>95532</v>
+        <v>89686</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6705,25 +6711,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221945</v>
+        <v>658</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6734,10 +6740,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>569286.1694550777</v>
+        <v>569311.4872073382</v>
       </c>
       <c r="R55" t="n">
-        <v>6991886.199991896</v>
+        <v>6991870.858826003</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6806,10 +6812,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111251276</v>
+        <v>111249281</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6818,25 +6824,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6847,10 +6853,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>569298.1228686108</v>
+        <v>569357.4928990568</v>
       </c>
       <c r="R56" t="n">
-        <v>6991879.64871443</v>
+        <v>6991631.345539477</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6882,7 +6888,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6892,7 +6898,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6919,10 +6925,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111254048</v>
+        <v>111254528</v>
       </c>
       <c r="B57" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6935,21 +6941,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6960,10 +6966,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>569413.9649865336</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R57" t="n">
-        <v>6991519.104081177</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -6995,7 +7001,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7005,12 +7011,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>16:29</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7037,7 +7038,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111249372</v>
+        <v>111250493</v>
       </c>
       <c r="B58" t="n">
         <v>78578</v>
@@ -7078,10 +7079,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>569345.1029144006</v>
+        <v>569352.0774200963</v>
       </c>
       <c r="R58" t="n">
-        <v>6991658.307856695</v>
+        <v>6991736.051629628</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7113,7 +7114,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7123,7 +7124,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7150,10 +7151,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111249850</v>
+        <v>111249480</v>
       </c>
       <c r="B59" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7166,21 +7167,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7191,10 +7192,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>569339.2156779077</v>
+        <v>569345.4513511715</v>
       </c>
       <c r="R59" t="n">
-        <v>6991721.256613475</v>
+        <v>6991641.979281792</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7226,7 +7227,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7236,7 +7237,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7263,10 +7264,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111249332</v>
+        <v>111249030</v>
       </c>
       <c r="B60" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7279,21 +7280,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7304,10 +7305,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>569357.4928990568</v>
+        <v>569312.2187498846</v>
       </c>
       <c r="R60" t="n">
-        <v>6991631.345539477</v>
+        <v>6991580.917124028</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7339,7 +7340,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7349,7 +7350,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7376,10 +7377,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111251881</v>
+        <v>111250347</v>
       </c>
       <c r="B61" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7392,21 +7393,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7417,10 +7418,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>569355.4842857358</v>
+        <v>569291.1779632393</v>
       </c>
       <c r="R61" t="n">
-        <v>6991853.193911698</v>
+        <v>6991715.24049816</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7452,7 +7453,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7462,7 +7463,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7489,7 +7490,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111250393</v>
+        <v>111249744</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7530,10 +7531,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>569307.0354643038</v>
+        <v>569347.6725137118</v>
       </c>
       <c r="R62" t="n">
-        <v>6991738.720787689</v>
+        <v>6991686.950512252</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7565,7 +7566,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7575,7 +7576,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7602,10 +7603,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111251336</v>
+        <v>111251801</v>
       </c>
       <c r="B63" t="n">
-        <v>78611</v>
+        <v>89686</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7614,25 +7615,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6463</v>
+        <v>658</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7643,10 +7644,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>569298.1228686108</v>
+        <v>569335.4523670888</v>
       </c>
       <c r="R63" t="n">
-        <v>6991879.64871443</v>
+        <v>6991855.03516248</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7715,10 +7716,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111250729</v>
+        <v>111251387</v>
       </c>
       <c r="B64" t="n">
-        <v>96348</v>
+        <v>95532</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7727,25 +7728,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7756,10 +7757,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>569335.0375771614</v>
+        <v>569286.1694550777</v>
       </c>
       <c r="R64" t="n">
-        <v>6991831.885005536</v>
+        <v>6991886.199991896</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7828,10 +7829,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111249376</v>
+        <v>111251276</v>
       </c>
       <c r="B65" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7840,25 +7841,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7869,10 +7870,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>569345.1029144006</v>
+        <v>569298.1228686108</v>
       </c>
       <c r="R65" t="n">
-        <v>6991658.307856695</v>
+        <v>6991879.64871443</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7904,7 +7905,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7914,7 +7915,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7941,7 +7942,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111254429</v>
+        <v>111254048</v>
       </c>
       <c r="B66" t="n">
         <v>77515</v>
@@ -7982,10 +7983,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>569389.9446826552</v>
+        <v>569413.9649865336</v>
       </c>
       <c r="R66" t="n">
-        <v>6991409.678100795</v>
+        <v>6991519.104081177</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8017,7 +8018,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8027,7 +8028,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -8059,10 +8060,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111250796</v>
+        <v>111249372</v>
       </c>
       <c r="B67" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8075,21 +8076,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8100,10 +8101,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>569335.4523670888</v>
+        <v>569345.1029144006</v>
       </c>
       <c r="R67" t="n">
-        <v>6991855.03516248</v>
+        <v>6991658.307856695</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8135,7 +8136,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8145,7 +8146,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8172,10 +8173,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111249831</v>
+        <v>111249850</v>
       </c>
       <c r="B68" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8188,21 +8189,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8213,10 +8214,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>569336.6363618984</v>
+        <v>569339.2156779077</v>
       </c>
       <c r="R68" t="n">
-        <v>6991693.067832828</v>
+        <v>6991721.256613475</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8285,10 +8286,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111253942</v>
+        <v>111249332</v>
       </c>
       <c r="B69" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8301,21 +8302,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8326,10 +8327,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>569401.555805147</v>
+        <v>569357.4928990568</v>
       </c>
       <c r="R69" t="n">
-        <v>6991525.645999004</v>
+        <v>6991631.345539477</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8361,7 +8362,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8371,7 +8372,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8398,7 +8399,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111254202</v>
+        <v>111251881</v>
       </c>
       <c r="B70" t="n">
         <v>78578</v>
@@ -8439,10 +8440,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>569425.1387308423</v>
+        <v>569355.4842857358</v>
       </c>
       <c r="R70" t="n">
-        <v>6991485.307824904</v>
+        <v>6991853.193911698</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8474,7 +8475,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8484,7 +8485,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>16:53</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8511,10 +8512,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111252252</v>
+        <v>111250393</v>
       </c>
       <c r="B71" t="n">
-        <v>89590</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8527,21 +8528,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>48</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8552,10 +8553,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>569383.1558505741</v>
+        <v>569307.0354643038</v>
       </c>
       <c r="R71" t="n">
-        <v>6991727.63971243</v>
+        <v>6991738.720787689</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8587,7 +8588,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8597,7 +8598,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8624,10 +8625,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111248624</v>
+        <v>111251336</v>
       </c>
       <c r="B72" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8636,25 +8637,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8665,10 +8666,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>569280.5017285499</v>
+        <v>569298.1228686108</v>
       </c>
       <c r="R72" t="n">
-        <v>6991555.282407867</v>
+        <v>6991879.64871443</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8700,7 +8701,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8710,7 +8711,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8737,10 +8738,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111248967</v>
+        <v>111250729</v>
       </c>
       <c r="B73" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8749,25 +8750,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8778,10 +8779,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>569325.8740521516</v>
+        <v>569335.0375771614</v>
       </c>
       <c r="R73" t="n">
-        <v>6991579.847034768</v>
+        <v>6991831.885005536</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8813,7 +8814,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8823,7 +8824,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8850,10 +8851,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111248638</v>
+        <v>111249376</v>
       </c>
       <c r="B74" t="n">
-        <v>77267</v>
+        <v>78611</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8862,25 +8863,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6446</v>
+        <v>6463</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8891,10 +8892,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>569273.0602891329</v>
+        <v>569345.1029144006</v>
       </c>
       <c r="R74" t="n">
-        <v>6991563.292001127</v>
+        <v>6991658.307856695</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8926,7 +8927,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8936,7 +8937,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8963,10 +8964,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111249624</v>
+        <v>111254429</v>
       </c>
       <c r="B75" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8975,25 +8976,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9004,10 +9005,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>569336.6363618984</v>
+        <v>569389.9446826552</v>
       </c>
       <c r="R75" t="n">
-        <v>6991693.067832828</v>
+        <v>6991409.678100795</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9039,7 +9040,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9049,7 +9050,12 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9076,10 +9082,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111253829</v>
+        <v>111250796</v>
       </c>
       <c r="B76" t="n">
-        <v>77186</v>
+        <v>89423</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9092,21 +9098,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>353</v>
+        <v>5432</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9117,10 +9123,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>569380.6327735524</v>
+        <v>569335.4523670888</v>
       </c>
       <c r="R76" t="n">
-        <v>6991526.560634119</v>
+        <v>6991855.03516248</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9152,7 +9158,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9162,7 +9168,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>16:29</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9189,10 +9195,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111250643</v>
+        <v>111249831</v>
       </c>
       <c r="B77" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9205,21 +9211,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9230,10 +9236,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>569344.7032350204</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R77" t="n">
-        <v>6991762.212588392</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9265,7 +9271,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9275,7 +9281,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9302,10 +9308,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111248259</v>
+        <v>111253942</v>
       </c>
       <c r="B78" t="n">
-        <v>89686</v>
+        <v>77267</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9318,21 +9324,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>658</v>
+        <v>6446</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9343,10 +9349,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>569165.6920703583</v>
+        <v>569401.555805147</v>
       </c>
       <c r="R78" t="n">
-        <v>6991547.845184474</v>
+        <v>6991525.645999004</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9378,7 +9384,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9388,7 +9394,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9415,10 +9421,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111249909</v>
+        <v>111254202</v>
       </c>
       <c r="B79" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9431,21 +9437,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9456,10 +9462,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>569311.1236418867</v>
+        <v>569425.1387308423</v>
       </c>
       <c r="R79" t="n">
-        <v>6991717.480934915</v>
+        <v>6991485.307824904</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9491,7 +9497,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9501,7 +9507,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>16:53</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9528,10 +9534,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111249939</v>
+        <v>111252252</v>
       </c>
       <c r="B80" t="n">
-        <v>89686</v>
+        <v>89590</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9540,25 +9546,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9569,10 +9575,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>569329.4847762987</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R80" t="n">
-        <v>6991708.797230477</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9604,7 +9610,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -9614,7 +9620,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9641,10 +9647,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111252314</v>
+        <v>111248624</v>
       </c>
       <c r="B81" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9657,21 +9663,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9682,10 +9688,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>569375.9390762256</v>
+        <v>569280.5017285499</v>
       </c>
       <c r="R81" t="n">
-        <v>6991682.562339606</v>
+        <v>6991555.282407867</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -9717,7 +9723,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -9727,7 +9733,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9754,10 +9760,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111251249</v>
+        <v>111248967</v>
       </c>
       <c r="B82" t="n">
-        <v>77515</v>
+        <v>77186</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9770,21 +9776,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9795,10 +9801,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>569319.401580702</v>
+        <v>569325.8740521516</v>
       </c>
       <c r="R82" t="n">
-        <v>6991861.95269735</v>
+        <v>6991579.847034768</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -9830,7 +9836,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -9840,7 +9846,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9867,10 +9873,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111250234</v>
+        <v>111248638</v>
       </c>
       <c r="B83" t="n">
-        <v>89686</v>
+        <v>77267</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9883,21 +9889,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>658</v>
+        <v>6446</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9908,10 +9914,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>569295.4300983869</v>
+        <v>569273.0602891329</v>
       </c>
       <c r="R83" t="n">
-        <v>6991707.617092772</v>
+        <v>6991563.292001127</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -9943,7 +9949,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9953,7 +9959,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9980,10 +9986,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111251085</v>
+        <v>111249624</v>
       </c>
       <c r="B84" t="n">
-        <v>94134</v>
+        <v>89369</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9992,25 +9998,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10021,10 +10027,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>569308.5885678579</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R84" t="n">
-        <v>6991857.638304747</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10056,7 +10062,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -10066,7 +10072,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10093,10 +10099,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111248740</v>
+        <v>111254776</v>
       </c>
       <c r="B85" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10105,25 +10111,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10134,10 +10140,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>569294.9201144365</v>
+        <v>569346.6997027611</v>
       </c>
       <c r="R85" t="n">
-        <v>6991582.363368088</v>
+        <v>6991285.31596909</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10169,7 +10175,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -10179,7 +10185,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10206,10 +10212,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111249822</v>
+        <v>111253829</v>
       </c>
       <c r="B86" t="n">
-        <v>89686</v>
+        <v>77186</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10222,21 +10228,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>658</v>
+        <v>353</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10247,10 +10253,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>569336.6363618984</v>
+        <v>569380.6327735524</v>
       </c>
       <c r="R86" t="n">
-        <v>6991693.067832828</v>
+        <v>6991526.560634119</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10282,7 +10288,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10292,7 +10298,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>13:33</t>
+          <t>16:29</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10319,10 +10325,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111248575</v>
+        <v>111250643</v>
       </c>
       <c r="B87" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10331,25 +10337,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10360,10 +10366,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>569293.1809982734</v>
+        <v>569344.7032350204</v>
       </c>
       <c r="R87" t="n">
-        <v>6991557.367896893</v>
+        <v>6991762.212588392</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10395,7 +10401,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10405,7 +10411,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10432,10 +10438,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111254369</v>
+        <v>111248259</v>
       </c>
       <c r="B88" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10448,21 +10454,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10473,10 +10479,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>569423.6621602169</v>
+        <v>569165.6920703583</v>
       </c>
       <c r="R88" t="n">
-        <v>6991448.064345377</v>
+        <v>6991547.845184474</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10508,7 +10514,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -10518,7 +10524,7 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10545,10 +10551,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111254324</v>
+        <v>111249909</v>
       </c>
       <c r="B89" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10557,25 +10563,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10586,10 +10592,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>569420.3554430183</v>
+        <v>569311.1236418867</v>
       </c>
       <c r="R89" t="n">
-        <v>6991475.221997982</v>
+        <v>6991717.480934915</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10621,7 +10627,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10631,7 +10637,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10658,10 +10664,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111251574</v>
+        <v>111249939</v>
       </c>
       <c r="B90" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10674,21 +10680,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10699,10 +10705,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>569311.4872073382</v>
+        <v>569329.4847762987</v>
       </c>
       <c r="R90" t="n">
-        <v>6991870.858826003</v>
+        <v>6991708.797230477</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10734,7 +10740,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -10744,12 +10750,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>14:18</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>På björk och gran</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10776,10 +10777,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111251532</v>
+        <v>111252314</v>
       </c>
       <c r="B91" t="n">
-        <v>96381</v>
+        <v>89686</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10788,25 +10789,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>219874</v>
+        <v>658</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10817,10 +10818,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>569293.3011180179</v>
+        <v>569375.9390762256</v>
       </c>
       <c r="R91" t="n">
-        <v>6991871.378452423</v>
+        <v>6991682.562339606</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10852,7 +10853,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -10862,7 +10863,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10889,10 +10890,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111252281</v>
+        <v>111251249</v>
       </c>
       <c r="B92" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10905,21 +10906,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10930,10 +10931,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>569383.1558505741</v>
+        <v>569319.401580702</v>
       </c>
       <c r="R92" t="n">
-        <v>6991727.63971243</v>
+        <v>6991861.95269735</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -10965,7 +10966,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -10975,7 +10976,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11002,10 +11003,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111250541</v>
+        <v>111250234</v>
       </c>
       <c r="B93" t="n">
-        <v>89369</v>
+        <v>89686</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11014,25 +11015,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5447</v>
+        <v>658</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11043,10 +11044,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>569352.0774200963</v>
+        <v>569295.4300983869</v>
       </c>
       <c r="R93" t="n">
-        <v>6991736.051629628</v>
+        <v>6991707.617092772</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11078,7 +11079,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11088,7 +11089,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11115,10 +11116,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>102690042</v>
+        <v>111251085</v>
       </c>
       <c r="B94" t="n">
-        <v>78569</v>
+        <v>94134</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11131,21 +11132,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11156,10 +11157,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>569253.7617982501</v>
+        <v>569308.5885678579</v>
       </c>
       <c r="R94" t="n">
-        <v>6991360.030438415</v>
+        <v>6991857.638304747</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11186,22 +11187,22 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11228,10 +11229,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>102690032</v>
+        <v>111254715</v>
       </c>
       <c r="B95" t="n">
-        <v>78569</v>
+        <v>96348</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11240,25 +11241,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11269,10 +11270,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>569260.962068707</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R95" t="n">
-        <v>6991342.031109948</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11299,22 +11300,22 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11341,10 +11342,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>102689884</v>
+        <v>111248740</v>
       </c>
       <c r="B96" t="n">
-        <v>78569</v>
+        <v>96348</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11353,25 +11354,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11382,10 +11383,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>569360.7040222746</v>
+        <v>569294.9201144365</v>
       </c>
       <c r="R96" t="n">
-        <v>6991289.245431411</v>
+        <v>6991582.363368088</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11412,22 +11413,22 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11454,10 +11455,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>102689900</v>
+        <v>111249822</v>
       </c>
       <c r="B97" t="n">
-        <v>78569</v>
+        <v>89686</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11470,21 +11471,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11495,10 +11496,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>569346.6997027611</v>
+        <v>569336.6363618984</v>
       </c>
       <c r="R97" t="n">
-        <v>6991285.31596909</v>
+        <v>6991693.067832828</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11525,22 +11526,22 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:33</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11567,10 +11568,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>102689966</v>
+        <v>111248575</v>
       </c>
       <c r="B98" t="n">
-        <v>77506</v>
+        <v>96348</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11579,25 +11580,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11608,10 +11609,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>569309.7897322553</v>
+        <v>569293.1809982734</v>
       </c>
       <c r="R98" t="n">
-        <v>6991268.644606683</v>
+        <v>6991557.367896893</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11638,27 +11639,22 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>12:43</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11685,10 +11681,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>102690045</v>
+        <v>111254369</v>
       </c>
       <c r="B99" t="n">
-        <v>95519</v>
+        <v>78578</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11697,40 +11693,39 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>221945</v>
+        <v>6458</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>569253.7617982501</v>
+        <v>569423.6621602169</v>
       </c>
       <c r="R99" t="n">
-        <v>6991360.030438415</v>
+        <v>6991448.064345377</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11757,22 +11752,22 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11799,10 +11794,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>102689869</v>
+        <v>111254324</v>
       </c>
       <c r="B100" t="n">
-        <v>78569</v>
+        <v>96348</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11811,25 +11806,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11840,10 +11835,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>569341.0267158477</v>
+        <v>569420.3554430183</v>
       </c>
       <c r="R100" t="n">
-        <v>6991274.30302307</v>
+        <v>6991475.221997982</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11870,22 +11865,22 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11912,10 +11907,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>102689946</v>
+        <v>111254559</v>
       </c>
       <c r="B101" t="n">
-        <v>89406</v>
+        <v>78578</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11928,21 +11923,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11953,10 +11948,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>569331.0530663347</v>
+        <v>569369.699462823</v>
       </c>
       <c r="R101" t="n">
-        <v>6991251.852494733</v>
+        <v>6991357.510963725</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -11983,22 +11978,27 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>Liten bål på gammal senvuxen björk</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12025,10 +12025,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111254528</v>
+        <v>111251574</v>
       </c>
       <c r="B102" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12041,21 +12041,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>569369.699462823</v>
+        <v>569311.4872073382</v>
       </c>
       <c r="R102" t="n">
-        <v>6991357.510963725</v>
+        <v>6991870.858826003</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12111,7 +12111,12 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>På björk och gran</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12138,10 +12143,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111254776</v>
+        <v>111251532</v>
       </c>
       <c r="B103" t="n">
-        <v>78611</v>
+        <v>96381</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12154,21 +12159,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6463</v>
+        <v>219874</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12179,10 +12184,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>569346.6997027611</v>
+        <v>569293.3011180179</v>
       </c>
       <c r="R103" t="n">
-        <v>6991285.31596909</v>
+        <v>6991871.378452423</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12214,7 +12219,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12224,7 +12229,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12251,10 +12256,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111254715</v>
+        <v>111252281</v>
       </c>
       <c r="B104" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12263,25 +12268,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12292,10 +12297,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>569369.699462823</v>
+        <v>569383.1558505741</v>
       </c>
       <c r="R104" t="n">
-        <v>6991357.510963725</v>
+        <v>6991727.63971243</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12327,7 +12332,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12337,7 +12342,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12364,7 +12369,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111254559</v>
+        <v>111254771</v>
       </c>
       <c r="B105" t="n">
         <v>78578</v>
@@ -12405,10 +12410,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>569369.699462823</v>
+        <v>569372.2038656139</v>
       </c>
       <c r="R105" t="n">
-        <v>6991357.510963725</v>
+        <v>6991325.343115335</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12440,7 +12445,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12450,12 +12455,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>Liten bål på gammal senvuxen björk</t>
+          <t>17:16</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12482,10 +12482,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111254771</v>
+        <v>111250541</v>
       </c>
       <c r="B106" t="n">
-        <v>78578</v>
+        <v>89369</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12494,25 +12494,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12523,10 +12523,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>569372.2038656139</v>
+        <v>569352.0774200963</v>
       </c>
       <c r="R106" t="n">
-        <v>6991325.343115335</v>
+        <v>6991736.051629628</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD106" t="b">
